--- a/TestNG/data/MasterData - Copy (2).xlsx
+++ b/TestNG/data/MasterData - Copy (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\git\Dynamics-CRM-V2.3\TestNG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5565D05-D11A-4EDD-82D4-240CA8B9B1C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5925D0BE-BA21-49BB-9680-DF4455988834}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" activeTab="1" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="425">
   <si>
     <t>UserName</t>
   </si>
@@ -66,9 +66,6 @@
     <t>ParticipationType</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
     <t>Recordstatus</t>
   </si>
   <si>
@@ -732,33 +729,6 @@
     <t>2000141844</t>
   </si>
   <si>
-    <t>2000456739</t>
-  </si>
-  <si>
-    <t>2000456740</t>
-  </si>
-  <si>
-    <t>2000456741</t>
-  </si>
-  <si>
-    <t>2000456742</t>
-  </si>
-  <si>
-    <t>2000456745</t>
-  </si>
-  <si>
-    <t>2000456747</t>
-  </si>
-  <si>
-    <t>2000456748</t>
-  </si>
-  <si>
-    <t>2000456749</t>
-  </si>
-  <si>
-    <t>2000456752</t>
-  </si>
-  <si>
     <t>2000456753</t>
   </si>
   <si>
@@ -1152,18 +1122,9 @@
     <t>Membership Provider With SOAR</t>
   </si>
   <si>
-    <t>2000457000</t>
-  </si>
-  <si>
     <t>2000457001</t>
   </si>
   <si>
-    <t>2000457002</t>
-  </si>
-  <si>
-    <t>2000457003</t>
-  </si>
-  <si>
     <t>TFS ID_ 7473:Change Account status to inactive for a Membership Provider with type "SOAR"</t>
   </si>
   <si>
@@ -1185,9 +1146,6 @@
     <t>Inactive</t>
   </si>
   <si>
-    <t>2000457057</t>
-  </si>
-  <si>
     <t>TFS ID_ 7491:Create New Business Partner account using member supervisor</t>
   </si>
   <si>
@@ -1197,52 +1155,163 @@
     <t>1000039759</t>
   </si>
   <si>
-    <t>2000457060</t>
+    <t>Business Partner</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1111:Create Supplier with all available fields</t>
+  </si>
+  <si>
+    <t>Supplier with all available fields</t>
+  </si>
+  <si>
+    <t>accountName2</t>
+  </si>
+  <si>
+    <t>verifyCAMSFlag</t>
+  </si>
+  <si>
+    <t>stockSymbol</t>
+  </si>
+  <si>
+    <t>deliveryInfo</t>
+  </si>
+  <si>
+    <t>mainPhone</t>
+  </si>
+  <si>
+    <t>receiveDirectMail</t>
+  </si>
+  <si>
+    <t>doNotVerifyAddress</t>
+  </si>
+  <si>
+    <t>verifyIsTopParent</t>
+  </si>
+  <si>
+    <t>overrideName</t>
+  </si>
+  <si>
+    <t>Account name2</t>
+  </si>
+  <si>
+    <t>Test exchange</t>
+  </si>
+  <si>
+    <t>Override name</t>
+  </si>
+  <si>
+    <t>memberRecord</t>
+  </si>
+  <si>
+    <t>verifyHIBCC</t>
+  </si>
+  <si>
+    <t>verifyNoNewProducts</t>
+  </si>
+  <si>
+    <t>Amalgamated Transit Union</t>
+  </si>
+  <si>
+    <t>verifyTopParent</t>
+  </si>
+  <si>
+    <t>2000462210</t>
+  </si>
+  <si>
+    <t>2000462213</t>
+  </si>
+  <si>
+    <t>2000462215</t>
+  </si>
+  <si>
+    <t>2000462216</t>
+  </si>
+  <si>
+    <t>2000462217</t>
+  </si>
+  <si>
+    <t>2000462220</t>
   </si>
   <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>Business Partner</t>
-  </si>
-  <si>
-    <t>2000457061</t>
-  </si>
-  <si>
-    <t>2021_02_10_06_45_16</t>
-  </si>
-  <si>
-    <t>2000457063</t>
-  </si>
-  <si>
-    <t>2021_02_10_07_06_33</t>
-  </si>
-  <si>
-    <t>2000457064</t>
-  </si>
-  <si>
-    <t>2021_02_10_08_44_41</t>
-  </si>
-  <si>
-    <t>2000457065</t>
-  </si>
-  <si>
-    <t>2021_02_10_08_48_08</t>
-  </si>
-  <si>
-    <t>2000457066</t>
+    <t>2000462233</t>
+  </si>
+  <si>
+    <t>2000462234</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>2000462236</t>
+  </si>
+  <si>
+    <t>2021_02_19_07_45_12</t>
+  </si>
+  <si>
+    <t>2000462237</t>
+  </si>
+  <si>
+    <t>2021_02_19_07_51_33</t>
+  </si>
+  <si>
+    <t>2000462240</t>
+  </si>
+  <si>
+    <t>2021_02_19_07_54_15</t>
+  </si>
+  <si>
+    <t>2000462242</t>
+  </si>
+  <si>
+    <t>2021_02_19_07_58_31</t>
+  </si>
+  <si>
+    <t>2000462243</t>
+  </si>
+  <si>
+    <t>2000462244</t>
+  </si>
+  <si>
+    <t>2021_02_19_08_24_07</t>
+  </si>
+  <si>
+    <t>2000462245</t>
+  </si>
+  <si>
+    <t>2021_02_19_08_31_24</t>
+  </si>
+  <si>
+    <t>2000462246</t>
+  </si>
+  <si>
+    <t>2021_02_19_08_36_52</t>
+  </si>
+  <si>
+    <t>2000462247</t>
+  </si>
+  <si>
+    <t>2021_02_19_08_55_11</t>
+  </si>
+  <si>
+    <t>2000462248</t>
+  </si>
+  <si>
+    <t>2000462249</t>
+  </si>
+  <si>
+    <t>2021_02_22_12_16_12</t>
+  </si>
+  <si>
+    <t>2000462250</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>2021_02_10_08_52_53</t>
-  </si>
-  <si>
-    <t>2000457077</t>
-  </si>
-  <si>
-    <t>2021_02_11_12_39_12</t>
+    <t>2021_02_22_12_28_37</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1514,6 +1583,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1829,10 +1900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C41" sqref="C3:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1850,31 +1921,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -1882,28 +1953,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>241</v>
+        <v>423</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>424</v>
       </c>
       <c r="H2" t="s">
-        <v>231</v>
+        <v>422</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1911,25 +1982,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G3" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H3" t="s">
-        <v>232</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1937,25 +2008,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
       <c r="F4" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G4" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H4" t="s">
-        <v>233</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1963,25 +2034,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G5" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H5" t="s">
-        <v>234</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1989,22 +2060,22 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G6" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -2012,22 +2083,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -2035,25 +2106,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G8" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -2061,22 +2132,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G9" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -2084,25 +2155,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G10" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H10" t="s">
-        <v>236</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -2110,25 +2181,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G11" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H11" t="s">
-        <v>237</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -2136,25 +2207,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G12" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H12" t="s">
-        <v>238</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -2162,22 +2233,22 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F13" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G13" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -2185,22 +2256,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G14" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -2208,25 +2279,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G15" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H15" t="s">
-        <v>239</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -2234,25 +2305,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G16" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H16" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2260,22 +2331,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G17" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2283,68 +2354,68 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
         <v>132</v>
       </c>
-      <c r="C18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>133</v>
-      </c>
       <c r="F18" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G18" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>219</v>
+      <c r="B19" s="28" t="s">
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F19" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G19" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>220</v>
+      <c r="B20" s="28" t="s">
+        <v>219</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G20" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2352,25 +2423,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H21" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2378,25 +2449,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G22" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H22" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2404,25 +2475,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H23" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2430,22 +2501,22 @@
         <v>23</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2453,25 +2524,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F25" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G25" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H25" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2479,25 +2550,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H26" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2505,25 +2576,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2531,25 +2602,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H28" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2557,25 +2628,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F29" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2583,25 +2654,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F30" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G30" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2609,25 +2680,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G31" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2635,25 +2706,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F32" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -2661,25 +2732,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G33" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -2687,25 +2758,25 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G34" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H34" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -2713,25 +2784,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G35" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H35" t="s">
-        <v>371</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -2739,25 +2810,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G36" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H36" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -2765,25 +2836,25 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G37" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H37" t="s">
-        <v>373</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -2791,25 +2862,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G38" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H38" t="s">
-        <v>374</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -2817,25 +2888,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F39" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G39" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H39" t="s">
-        <v>382</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -2843,25 +2914,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F40" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="G40" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="H40" t="s">
-        <v>386</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -2869,30 +2940,53 @@
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C41" t="s">
         <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F41" t="s">
-        <v>398</v>
+        <v>231</v>
       </c>
       <c r="G41" t="s">
-        <v>401</v>
+        <v>232</v>
       </c>
       <c r="H41" t="s">
-        <v>400</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>373</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" t="s">
+        <v>231</v>
+      </c>
+      <c r="G42" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C36" xr:uid="{11DB8818-DC61-4E14-B7A9-746A3214B0C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C42" xr:uid="{11DB8818-DC61-4E14-B7A9-746A3214B0C1}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2905,8 +2999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:CN28"/>
   <sheetViews>
-    <sheetView topLeftCell="AA2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF28" sqref="AF28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2988,10 +3082,10 @@
   <sheetData>
     <row r="1" spans="1:92" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -3000,10 +3094,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>3</v>
@@ -3012,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>5</v>
@@ -3024,244 +3118,244 @@
         <v>8</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>11</v>
-      </c>
       <c r="T1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="X1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="Y1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AC1" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="AD1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AE1" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="AF1" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AH1" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="AI1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AK1" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AL1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AO1" s="5" t="s">
-        <v>99</v>
-      </c>
       <c r="AP1" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT1" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AV1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AR1" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="AS1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AT1" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="AV1" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX1" s="8" t="s">
-        <v>105</v>
-      </c>
       <c r="AY1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="AZ1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AZ1" s="8" t="s">
-        <v>119</v>
-      </c>
       <c r="BA1" s="31" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="BB1" s="31" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="BC1" s="6" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="BD1" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>305</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>309</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>317</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="BP1" t="s">
         <v>254</v>
       </c>
-      <c r="BE1" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>315</v>
-      </c>
-      <c r="BG1" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="BH1" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="BJ1" s="6" t="s">
+      <c r="BQ1" t="s">
+        <v>327</v>
+      </c>
+      <c r="BR1" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="BK1" t="s">
-        <v>319</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>327</v>
-      </c>
-      <c r="BM1" s="6" t="s">
+      <c r="BS1" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="BU1" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="BN1" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="BO1" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="BP1" t="s">
+      <c r="BV1" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="BQ1" t="s">
-        <v>337</v>
-      </c>
-      <c r="BR1" s="6" t="s">
+      <c r="BW1" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="BX1" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="BY1" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="BZ1" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="CC1" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="CD1" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="CE1" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="CF1" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="CG1" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="CH1" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="CI1" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="BS1" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="BU1" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="BW1" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="BX1" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="BY1" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="BZ1" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="CA1" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="CB1" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="CD1" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="CE1" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="CF1" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="CG1" s="6" t="s">
+      <c r="CJ1" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="CK1" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="CL1" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="CM1" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="CH1" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="CI1" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="CJ1" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="CK1" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="CL1" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="CM1" s="6" t="s">
-        <v>359</v>
-      </c>
       <c r="CN1" s="6" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3269,95 +3363,95 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L2" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y2" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC2" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AD2" s="15">
         <v>44188</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU2" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3365,104 +3459,104 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y3" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC3" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW3" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AY3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AZ3" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3470,104 +3564,104 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L4" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U4" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y4" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC4" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI4" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW4" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3575,89 +3669,90 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>9</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>401</v>
+      </c>
+      <c r="M5" s="43"/>
       <c r="S5" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y5" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA5" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC5" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI5" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3665,92 +3760,92 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U6" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y6" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA6" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC6" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH6" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI6" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3758,89 +3853,89 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y7" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z7" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC7" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW7" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3848,99 +3943,99 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="10"/>
       <c r="J8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="Y8" s="13"/>
       <c r="Z8" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH8" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI8" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AK8" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AL8" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AM8" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AN8" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AO8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX8" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3948,105 +4043,105 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="10"/>
       <c r="J9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X9" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="Y9" s="13"/>
       <c r="Z9" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI9" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ9" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AC9" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH9" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI9" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ9" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="AM9" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP9" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="AQ9" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW9" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AX9" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4054,105 +4149,105 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I10" s="10"/>
       <c r="J10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y10" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC10" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="AA10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC10" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AD10" s="15">
         <v>44188</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH10" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI10" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AY10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AZ10" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4160,107 +4255,107 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I11" s="10"/>
       <c r="J11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X11" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U11" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W11" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y11" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z11" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB11" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA11" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB11" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC11" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD11" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI11" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AY11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4268,95 +4363,95 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X12" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y12" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA12" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA12" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC12" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI12" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4364,98 +4459,98 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T13" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U13" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X13" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y13" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA13" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC13" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD13" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH13" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI13" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4463,98 +4558,98 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X14" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U14" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X14" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y14" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC14" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AA14" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC14" s="14" t="s">
-        <v>35</v>
-      </c>
       <c r="AD14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH14" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI14" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AR14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4562,80 +4657,80 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" s="10"/>
       <c r="J15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U15" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X15" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y15" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC15" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="AA15" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC15" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AD15" s="15">
         <v>44188</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH15" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI15" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ15" s="11"/>
       <c r="AK15" s="11"/>
@@ -4644,28 +4739,28 @@
       <c r="AN15" s="16"/>
       <c r="AO15" s="11"/>
       <c r="AR15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AY15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:92" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4673,80 +4768,80 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I16" s="10"/>
       <c r="J16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U16" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X16" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y16" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC16" s="14" t="s">
         <v>34</v>
-      </c>
-      <c r="AA16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC16" s="14" t="s">
-        <v>35</v>
       </c>
       <c r="AD16" s="15">
         <v>44188</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH16" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI16" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ16" s="11"/>
       <c r="AK16" s="11"/>
@@ -4757,28 +4852,28 @@
       <c r="AP16" s="11"/>
       <c r="AQ16" s="10"/>
       <c r="AR16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AY16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:92" x14ac:dyDescent="0.3">
@@ -4786,10 +4881,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>2</v>
@@ -4797,83 +4892,83 @@
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I17" s="10"/>
       <c r="J17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+      <c r="L17" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O17" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="P17" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q17" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="P17" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q17" s="19" t="s">
+      <c r="R17" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="R17" s="20" t="s">
-        <v>131</v>
-      </c>
       <c r="S17" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U17" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X17" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y17" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA17" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AB17" s="9"/>
       <c r="AC17" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AD17" s="15">
         <v>44188</v>
       </c>
       <c r="AE17" s="9"/>
       <c r="AF17" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH17" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI17" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AJ17" s="11"/>
       <c r="AK17" s="11"/>
@@ -4888,10 +4983,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>2</v>
@@ -4912,37 +5007,37 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
       </c>
       <c r="E19" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="G19" t="s">
         <v>222</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" t="s">
         <v>224</v>
-      </c>
-      <c r="I19" t="s">
-        <v>225</v>
       </c>
       <c r="J19" t="s">
         <v>6</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="L19" t="s">
-        <v>9</v>
+        <v>223</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:92" x14ac:dyDescent="0.3">
@@ -4950,16 +5045,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20"/>
@@ -4969,7 +5064,7 @@
       <c r="K20"/>
       <c r="L20"/>
       <c r="M20" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AF20" s="9"/>
     </row>
@@ -4978,236 +5073,238 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="J21" t="s">
         <v>6</v>
       </c>
       <c r="K21" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>9</v>
+        <v>340</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P21" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="T21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X21" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U21" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X21" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y21" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z21" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="AB21" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC21" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD21" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE21" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL21" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="AM21" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN21" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="AO21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP21" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AA21" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB21" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC21" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD21" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="AE21" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AK21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AL21" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="AM21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN21" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="AO21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="AP21" s="9" t="s">
-        <v>102</v>
-      </c>
       <c r="AQ21" s="40" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AR21" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AS21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AT21" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AU21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AV21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AW21" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AX21" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AY21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AZ21" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BA21" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="BB21" s="20" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="BC21" t="s">
         <v>6</v>
       </c>
       <c r="BD21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BE21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BF21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BG21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BH21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BI21" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="BJ21" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="BK21" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="BL21" t="s">
         <v>318</v>
       </c>
-      <c r="BK21" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="BL21" t="s">
+      <c r="BM21" t="s">
+        <v>119</v>
+      </c>
+      <c r="BN21" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>61</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>326</v>
+      </c>
+      <c r="BQ21" s="40" t="s">
+        <v>340</v>
+      </c>
+      <c r="BR21" t="s">
         <v>328</v>
       </c>
-      <c r="BM21"/>
-      <c r="BN21" s="20" t="s">
+      <c r="BS21" t="s">
+        <v>331</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>332</v>
+      </c>
+      <c r="BU21" t="s">
         <v>333</v>
       </c>
-      <c r="BO21" t="s">
-        <v>62</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>336</v>
-      </c>
-      <c r="BQ21" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="BR21" t="s">
+      <c r="BV21" t="s">
+        <v>334</v>
+      </c>
+      <c r="BW21" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="BS21" t="s">
-        <v>341</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>342</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>343</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>344</v>
-      </c>
-      <c r="BW21" s="23" t="s">
-        <v>348</v>
-      </c>
       <c r="BX21" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="BY21" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="BZ21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CA21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CB21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CC21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CD21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CE21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CF21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="CG21" t="s">
         <v>347</v>
       </c>
-      <c r="BY21" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="BZ21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CA21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CB21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CC21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CD21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CE21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CF21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="CG21" t="s">
-        <v>357</v>
-      </c>
       <c r="CH21" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="CI21" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CJ21" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:92" x14ac:dyDescent="0.3">
@@ -5215,31 +5312,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="S22" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="CK22" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="CL22" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="CK22" s="41" t="s">
-        <v>360</v>
-      </c>
-      <c r="CL22" s="6" t="s">
-        <v>362</v>
-      </c>
       <c r="CM22" s="40" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:92" x14ac:dyDescent="0.3">
@@ -5247,31 +5344,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="42" t="s">
+        <v>348</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>368</v>
-      </c>
       <c r="S23" s="6" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="CK23" s="41" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="CL23" s="6" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="CM23" s="40" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:92" x14ac:dyDescent="0.3">
@@ -5279,31 +5376,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="S24" s="6" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="CK24" s="41" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="CL24" s="6" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="CM24" s="40" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="1:92" x14ac:dyDescent="0.3">
@@ -5311,31 +5408,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="E25" s="42" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="CK25" s="41" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="CL25" s="6" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="CM25" s="40" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:92" x14ac:dyDescent="0.3">
@@ -5343,34 +5440,34 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="C26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="S26" s="6" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="CK26" s="41" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="CL26" s="6" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="CM26" s="40" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="CN26" s="43" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:92" x14ac:dyDescent="0.3">
@@ -5378,81 +5475,81 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="S27" s="6" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="CK27" s="41" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="CL27" s="6" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="CM27" s="40" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="CN27" s="43" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:92" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="S28" s="6" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="T28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="X28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U28" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="W28" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X28" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="Y28" s="42" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="AA28" s="40" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AC28" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AD28" s="40" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AF28" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5467,44 +5564,67 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
-  <dimension ref="A1:Z14"/>
+  <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="61.44140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.5546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="21.44140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="90.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="20.6640625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="14" max="15" customWidth="true" width="20.33203125" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.109375" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="20" max="22" customWidth="true" width="21.5546875" collapsed="true"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="31.109375" collapsed="true"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="114.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="18.33203125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.21875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="82.44140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="15.5546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="19.21875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.33203125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="19.109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="24.5546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="23.5546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="34.88671875" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="13.77734375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="12.5546875" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="4.109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" width="5.6640625" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" width="13.21875" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="45" max="45" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -5513,114 +5633,177 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="U1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="V1" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="W1" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="X1" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Y1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="Y1" s="21" t="s">
+      <c r="Z1" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="Z1" s="21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>262</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>267</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>381</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>382</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>383</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" t="s">
         <v>55</v>
       </c>
-      <c r="K2" t="s">
-        <v>56</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
@@ -5630,48 +5813,48 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>155</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>156</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -5681,54 +5864,54 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" t="s">
         <v>161</v>
       </c>
-      <c r="K4" t="s">
-        <v>162</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -5736,52 +5919,52 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" t="s">
         <v>166</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
         <v>53</v>
       </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s">
+        <v>167</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" t="s">
         <v>168</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K5" t="s">
-        <v>169</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
@@ -5791,52 +5974,52 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" t="s">
+        <v>155</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K6" t="s">
-        <v>156</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="N6" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -5846,55 +6029,55 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Z6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>178</v>
-      </c>
       <c r="K7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -5904,351 +6087,482 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Z7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>182</v>
-      </c>
       <c r="L8" s="10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N8" s="10"/>
       <c r="Q8" s="1"/>
       <c r="S8" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="T8" s="23"/>
       <c r="U8" s="23"/>
       <c r="V8" s="23"/>
       <c r="W8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
         <v>53</v>
       </c>
-      <c r="F9" t="s">
-        <v>54</v>
-      </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J9" s="22">
         <v>44201</v>
       </c>
       <c r="K9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S9" s="23"/>
       <c r="T9" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="Z9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
         <v>53</v>
       </c>
-      <c r="F10" t="s">
-        <v>54</v>
-      </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="L10" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M10" s="23"/>
       <c r="N10" s="10"/>
       <c r="Q10" s="1"/>
       <c r="S10" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="T10" s="23" t="s">
         <v>191</v>
-      </c>
-      <c r="T10" s="23" t="s">
-        <v>192</v>
       </c>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
         <v>53</v>
       </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="1"/>
       <c r="N11" s="22"/>
       <c r="O11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="S11" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
         <v>53</v>
       </c>
-      <c r="F12" t="s">
-        <v>54</v>
-      </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
+        <v>199</v>
+      </c>
+      <c r="I12" t="s">
         <v>200</v>
       </c>
-      <c r="I12" t="s">
+      <c r="P12" t="s">
         <v>201</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S12" s="23" t="s">
+      <c r="T12" s="23" t="s">
         <v>203</v>
-      </c>
-      <c r="T12" s="23" t="s">
-        <v>204</v>
       </c>
       <c r="U12" s="23"/>
       <c r="V12" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I13" t="s">
+        <v>206</v>
+      </c>
+      <c r="P13" t="s">
         <v>207</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S13" s="23" t="s">
+      <c r="T13" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="T13" s="23" t="s">
+      <c r="U13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="V13" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="U13" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="V13" s="23" t="s">
+      <c r="W13" t="s">
         <v>211</v>
       </c>
-      <c r="W13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
         <v>53</v>
       </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
+        <v>199</v>
+      </c>
+      <c r="I14" t="s">
         <v>200</v>
       </c>
-      <c r="I14" t="s">
-        <v>201</v>
-      </c>
       <c r="P14" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S14" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S14" s="23" t="s">
+      <c r="T14" s="23" t="s">
         <v>215</v>
-      </c>
-      <c r="T14" s="23" t="s">
-        <v>216</v>
       </c>
       <c r="U14" s="23"/>
       <c r="V14" s="23" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W14" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="44">
+        <v>14</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>373</v>
+      </c>
+      <c r="C15" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="J15" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="O15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="U15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="V15" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB15" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="AC15" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD15" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF15" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>328</v>
+      </c>
+      <c r="AH15" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>331</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>332</v>
+      </c>
+      <c r="AK15" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL15" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="AM15" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="AN15" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="AO15" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP15" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ15" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR15" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="AS15" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="AT15" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU15" s="44" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AN15" r:id="rId1" xr:uid="{8A19EDCF-BD59-40A9-B1BB-CA280508B1BC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6275,7 +6589,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6283,15 +6597,15 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6299,20 +6613,20 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6320,47 +6634,47 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -6368,23 +6682,23 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -6392,169 +6706,169 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B19" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B26" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -6562,7 +6876,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -6570,7 +6884,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -6578,7 +6892,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="30" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -6586,7 +6900,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -6594,7 +6908,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -6602,7 +6916,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="30" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -6610,86 +6924,86 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B60" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B61" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B64" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F65">
         <v>86</v>
@@ -6697,346 +7011,346 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B67" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B71" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B72" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="29" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B75" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B76" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B77" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="30" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="29" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="29" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="29" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="30" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B91" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="30" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B95" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="30" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B98" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B100" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B101" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="30" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B105" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B106" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="30" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B108" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B110" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -7068,7 +7382,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -7076,15 +7390,15 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -7092,20 +7406,20 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7113,47 +7427,47 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -7161,23 +7475,23 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -7185,163 +7499,163 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B18" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B19" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="32" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="32" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B26" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="32" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="B28" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="29" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="29" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="30" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="29" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -7349,7 +7663,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="30" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -7357,7 +7671,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="30" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -7365,7 +7679,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="30" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -7373,7 +7687,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="30" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -7381,7 +7695,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="30" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -7389,7 +7703,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="30" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -7397,86 +7711,86 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B60" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="B61" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B64" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F65">
         <v>86</v>
@@ -7484,334 +7798,334 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B67" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B68" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="B69" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B71" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B72" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="29" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B75" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B76" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B77" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="30" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="29" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="29" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="29" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B84" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B85" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="30" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B88" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B89" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B90" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B91" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="30" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B95" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B96" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="30" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B98" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B99" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="30" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B103" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B104" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="30" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B108" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B109" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B110" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/TestNG/data/MasterData - Copy (2).xlsx
+++ b/TestNG/data/MasterData - Copy (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\schandr3\git\Dynamics-CRM-V2.3\TestNG\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFA0F9C-79DC-475F-A2C3-6C49C32F1078}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9490E79-7BEB-48DC-9175-2D405F6CAFE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="599" activeTab="3" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
+    <workbookView xWindow="24" yWindow="480" windowWidth="23016" windowHeight="12480" tabRatio="599" activeTab="1" xr2:uid="{442E3441-3F3C-4A77-BB17-E93CAE512719}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="477">
   <si>
     <t>UserName</t>
   </si>
@@ -164,1111 +164,1309 @@
     <t>General GPO</t>
   </si>
   <si>
+    <t>defaultAccountStatus</t>
+  </si>
+  <si>
+    <t>defaultAccountType</t>
+  </si>
+  <si>
+    <t>accountName</t>
+  </si>
+  <si>
+    <t>premierStartDate</t>
+  </si>
+  <si>
+    <t>businessClassification</t>
+  </si>
+  <si>
+    <t>selectTPRelationDate</t>
+  </si>
+  <si>
+    <t>street1</t>
+  </si>
+  <si>
+    <t>zipCode</t>
+  </si>
+  <si>
+    <t>recordStatusPublished</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>11/23/2020</t>
+  </si>
+  <si>
+    <t>Service Agreement</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5921 : Create a supplier top parent</t>
+  </si>
+  <si>
+    <t>CRMNumber</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>TimeStamp</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7137:Create new member - New Member form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7138:Create new member - New Member form through sub account and save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7139:Create new member - New Member entry form through sub account and save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7140: Create new member - New Member entry form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>ReleaseCategory</t>
+  </si>
+  <si>
+    <t>673415</t>
+  </si>
+  <si>
+    <t>VerifyIsCorporateAccount</t>
+  </si>
+  <si>
+    <t>VerifyCorporateParentName</t>
+  </si>
+  <si>
+    <t>Yankee Alliance</t>
+  </si>
+  <si>
+    <t>VerifyIsFoodServiceParent</t>
+  </si>
+  <si>
+    <t>VerifyFoodServiceParentName</t>
+  </si>
+  <si>
+    <t>VerifySponsor</t>
+  </si>
+  <si>
+    <t>VerifyIsSponsor</t>
+  </si>
+  <si>
+    <t>12/23/2020</t>
+  </si>
+  <si>
+    <t>TFS ID_7141:Create new member - New Member form and Save it as member first</t>
+  </si>
+  <si>
+    <t>Member_7141_12212020</t>
+  </si>
+  <si>
+    <t>Member_7137_12212020</t>
+  </si>
+  <si>
+    <t>TFS ID_7142: Create new member - New Member entry form and Save it as member first</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>Member_7142_12212020</t>
+  </si>
+  <si>
+    <t>Member_7140_12212020</t>
+  </si>
+  <si>
+    <t>Member_7138_12212020</t>
+  </si>
+  <si>
+    <t>Member_7139_12212020</t>
+  </si>
+  <si>
+    <t>TFS ID_7143:Create new Top Parent member - New Member form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7144:Create new Top Parent member - New Member form and Save it as Member first</t>
+  </si>
+  <si>
+    <t>TP_7143_12302020</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Acurity</t>
+  </si>
+  <si>
+    <t>TopParentClassification</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>TP_7144_12302020</t>
+  </si>
+  <si>
+    <t>FeeShareEligibleStartDate</t>
+  </si>
+  <si>
+    <t>FBOType</t>
+  </si>
+  <si>
+    <t>FBOEffectiveDate</t>
+  </si>
+  <si>
+    <t>isFBO</t>
+  </si>
+  <si>
+    <t>corp\crmtest01</t>
+  </si>
+  <si>
+    <t>Owned</t>
+  </si>
+  <si>
+    <t>Affiliate NonAcute</t>
+  </si>
+  <si>
+    <t>AffiliateGroup</t>
+  </si>
+  <si>
+    <t>AffiliateGroupEffectiveDate</t>
+  </si>
+  <si>
+    <t>VerifyDirectParentRelation</t>
+  </si>
+  <si>
+    <t>TFS ID_7152: Create new Mail to account - New Member form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>TFS ID_7151:Create new Bill to account - New Member form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>Member_7152_12212020</t>
+  </si>
+  <si>
+    <t>Member_7151_12212020</t>
+  </si>
+  <si>
+    <t>Mail To</t>
+  </si>
+  <si>
+    <t>TFS ID_7146:Create new Shipto account - New Member form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>Bill To</t>
+  </si>
+  <si>
+    <t>TFS ID_7148:Create new Shipto account - New Member entry form and Save it as prospect first</t>
+  </si>
+  <si>
+    <t>Member_7146_12212020</t>
+  </si>
+  <si>
+    <t>Member_7148_12212020</t>
+  </si>
+  <si>
+    <t>TFS ID_7147:Create new Shipto account - New Member form through sub account and save it as prospect first</t>
+  </si>
+  <si>
+    <t>Member_7147_12212020</t>
+  </si>
+  <si>
+    <t>VerifyTopParent</t>
+  </si>
+  <si>
+    <t>VerifyDirectParent</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TFS ID_7149:Create new Shipto account for conversion scenario - New Member form and Save it as member first</t>
+  </si>
+  <si>
+    <t>TFS ID_7312: Add and update Primary contact to a Member account</t>
+  </si>
+  <si>
+    <t>PrimaryContact</t>
+  </si>
+  <si>
+    <t>PrimaryContactName</t>
+  </si>
+  <si>
+    <t>PrimaryContactLookUp</t>
+  </si>
+  <si>
+    <t>PrimaryContactNameLookUp</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>7000331193</t>
+  </si>
+  <si>
+    <t>7000133221</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>TFS ID_7313:Verify Account status is defaulted to Active on a member &amp; member entry form</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Behnke, Jennie</t>
+  </si>
+  <si>
+    <t>TFS ID_7150: Create new Shipto to main account conversionClose</t>
+  </si>
+  <si>
+    <t>Member_7149_12212020</t>
+  </si>
+  <si>
+    <t>Member_7150_12212020</t>
+  </si>
+  <si>
+    <t>Member_7312_12212020</t>
+  </si>
+  <si>
+    <t>recordChangeStatus</t>
+  </si>
+  <si>
+    <t>directParent</t>
+  </si>
+  <si>
+    <t>selectDPRelationDate</t>
+  </si>
+  <si>
+    <t>storeLocationType</t>
+  </si>
+  <si>
+    <t>addSupplierPrimaryContact</t>
+  </si>
+  <si>
+    <t>crmNumberInput</t>
+  </si>
+  <si>
+    <t>verifyEntityCode</t>
+  </si>
+  <si>
+    <t>verifyRecordStatus</t>
+  </si>
+  <si>
+    <t>verifyRecordChangeStatus</t>
+  </si>
+  <si>
+    <t>verifyAccountName</t>
+  </si>
+  <si>
+    <t>verifyPrimaryContactValue</t>
+  </si>
+  <si>
+    <t>expectedAccountStatusErrorText</t>
+  </si>
+  <si>
+    <t>verifyDPValue</t>
+  </si>
+  <si>
+    <t>corp\crmtest04</t>
+  </si>
+  <si>
+    <t>Create Supplier TP</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5757: Supplier account can not be inactive</t>
+  </si>
+  <si>
+    <t>Check Supplier Account Status</t>
+  </si>
+  <si>
+    <t>Distributor</t>
+  </si>
+  <si>
+    <t>254 33rd St</t>
+  </si>
+  <si>
+    <t>Supplier cannot be made Inactive</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5911: Add a primary contact to a supplier</t>
+  </si>
+  <si>
+    <t>Add Primary Contact to Supplier</t>
+  </si>
+  <si>
+    <t>12/29/2020</t>
+  </si>
+  <si>
+    <t>Wholesaler</t>
+  </si>
+  <si>
+    <t>255 33rd St</t>
+  </si>
+  <si>
+    <t>7000309682</t>
+  </si>
+  <si>
+    <t>Almon, Helen</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7153: Create a supplier Top Parent- Save using Supplier Login and but not able to Publish</t>
+  </si>
+  <si>
+    <t>corp\crmtest03</t>
+  </si>
+  <si>
+    <t>Create TP with Supplier Login</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>256 33rd St</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7154 :Create a supplier under a DP and save using Supplier Login</t>
+  </si>
+  <si>
+    <t>Create a Supplier under DP with Supplier Login</t>
+  </si>
+  <si>
+    <t>823260</t>
+  </si>
+  <si>
+    <t>257 33rd St</t>
+  </si>
+  <si>
+    <t>1000Bulbs.com</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7159 :Create a supplier under DP -Save and Publish Supplier Supervisor Login</t>
+  </si>
+  <si>
+    <t>Publish Supplier under DP with Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>12/30/2020</t>
+  </si>
+  <si>
+    <t>258 33rd St</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7155 :Publish an existing supplier using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>Publish an existing supplier using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>12/30/2021</t>
+  </si>
+  <si>
+    <t>1000162819</t>
+  </si>
+  <si>
+    <t>7 Oaks Pharmaceutical</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7160 :Create a supplier -Ship To Location Type -Save and Publish Supplier Supervisor Login</t>
+  </si>
+  <si>
+    <t>Create a supplier -Ship To Location Type -Save and Publish Supplier Supervisor Login</t>
+  </si>
+  <si>
+    <t>260 33rd St</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7161 :Convert a Supplier Ship To Location Type to Main Account using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>Convert a Supplier Ship To Location Type to Main Account using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>1/5/2021</t>
+  </si>
+  <si>
+    <t>2000336450</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7162 :Convert a Supplier Main Account to Ship To Location Type Account using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>Convert a Supplier Main Account to Ship To Location Type Account using Supplier  Supervisor Login</t>
+  </si>
+  <si>
+    <t>2000451047</t>
+  </si>
+  <si>
+    <t>AD7516</t>
+  </si>
+  <si>
+    <t>613med Solutions</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7157:Modify Address in an existing Supplier Account as a Supplier Supervisor and Verify Record Change Status</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Modify Address as a Supplier Supervisor</t>
+  </si>
+  <si>
+    <t>265 33rd St</t>
+  </si>
+  <si>
+    <t>2000141830</t>
+  </si>
+  <si>
+    <t>804679</t>
+  </si>
+  <si>
+    <t>180 Innovations LLC</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7158:Modify Address in an existing Supplier Account as a Supplier and Verify Record Change Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modify Address as a Supplier </t>
+  </si>
+  <si>
+    <t>266 33rd St</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000141844 </t>
+  </si>
+  <si>
+    <t>826992</t>
+  </si>
+  <si>
+    <t>Needs Approval</t>
+  </si>
+  <si>
+    <t>2 Unique Caterers and Event Planners Inc</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7156:Modify Address in an existing Supplier Account and re-publish as a Supplier Supervisor. Same Entity code should be retained</t>
+  </si>
+  <si>
+    <t>267 33rd St</t>
+  </si>
+  <si>
+    <t>2000141843</t>
+  </si>
+  <si>
+    <t>739125</t>
+  </si>
+  <si>
+    <t>2 Degrees, Inc</t>
+  </si>
+  <si>
+    <t>1/4/2021</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1141 : Validate Business Key</t>
+  </si>
+  <si>
+    <t>Member_1141_11302020</t>
+  </si>
+  <si>
+    <t>CrmNumber</t>
+  </si>
+  <si>
+    <t>CrmNumber1</t>
+  </si>
+  <si>
+    <t>BusinessClassification</t>
+  </si>
+  <si>
+    <t>2000141844</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2000456755</t>
+  </si>
+  <si>
+    <t>2000456756</t>
+  </si>
+  <si>
+    <t>2000456757</t>
+  </si>
+  <si>
+    <t>2000456759</t>
+  </si>
+  <si>
+    <t>2000456760</t>
+  </si>
+  <si>
+    <t>2000456761</t>
+  </si>
+  <si>
+    <t>AccountName2</t>
+  </si>
+  <si>
+    <t>AcountStatus</t>
+  </si>
+  <si>
+    <t>ExcludeFromRoaster</t>
+  </si>
+  <si>
+    <t>SupplierRecord</t>
+  </si>
+  <si>
+    <t>Ownership</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>CorporateRebate</t>
+  </si>
+  <si>
+    <t>HIN</t>
+  </si>
+  <si>
+    <t>Street2</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>OverrideName</t>
+  </si>
+  <si>
+    <t>MainPhone</t>
+  </si>
+  <si>
+    <t>OtherPhone</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>FSRPTFlag</t>
+  </si>
+  <si>
+    <t>DoNotVerifyAddress</t>
+  </si>
+  <si>
+    <t>ExternalAddessID</t>
+  </si>
+  <si>
+    <t>MembershipProviderType</t>
+  </si>
+  <si>
+    <t>IsTopParent</t>
+  </si>
+  <si>
+    <t>CorpParentOverride</t>
+  </si>
+  <si>
+    <t>FBOManualOverride</t>
+  </si>
+  <si>
+    <t>FBOGPO</t>
+  </si>
+  <si>
+    <t>ReceiveDirectMail</t>
+  </si>
+  <si>
+    <t>Create member with all available fields2</t>
+  </si>
+  <si>
+    <t>VerifyCAMSFlag</t>
+  </si>
+  <si>
+    <t>VerifyPremierOwner</t>
+  </si>
+  <si>
+    <t>VerifyBKActive</t>
+  </si>
+  <si>
+    <t>Apara Care</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>ChangeRecordStatus</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>Create member with all available fields</t>
+  </si>
+  <si>
+    <t>Alternate Markets</t>
+  </si>
+  <si>
+    <t>Non-Healthcare</t>
+  </si>
+  <si>
+    <t>StockSymbol</t>
+  </si>
+  <si>
+    <t>Stock Symbol test</t>
+  </si>
+  <si>
+    <t>PaymentEntity</t>
+  </si>
+  <si>
+    <t>VerifyGroup</t>
+  </si>
+  <si>
+    <t>VerifyFacilityType</t>
+  </si>
+  <si>
+    <t>1 Senior Care</t>
+  </si>
+  <si>
+    <t>VerifyIsPaymentEntity</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>CorporateRebateFeeDate</t>
+  </si>
+  <si>
+    <t>Street2 test</t>
+  </si>
+  <si>
+    <t>DeliveryInfo</t>
+  </si>
+  <si>
+    <t>Delivery info test</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>OverrideName Test</t>
+  </si>
+  <si>
+    <t>test@test.com</t>
+  </si>
+  <si>
+    <t>FSPOverride</t>
+  </si>
+  <si>
+    <t>456987123</t>
+  </si>
+  <si>
+    <t>5987642158</t>
+  </si>
+  <si>
+    <t>DEANumber</t>
+  </si>
+  <si>
+    <t>2/2/2021</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7422:Create New Membership Provider with type "Aggregation Affiliation"</t>
+  </si>
+  <si>
+    <t>Membership Provider</t>
+  </si>
+  <si>
+    <t>MembershipProviderTypeOptions</t>
+  </si>
+  <si>
+    <t>Aggregation Affiliation</t>
+  </si>
+  <si>
+    <t>ak4789509</t>
+  </si>
+  <si>
+    <t>1000155584</t>
+  </si>
+  <si>
+    <t>MembershipProviderStartDate</t>
+  </si>
+  <si>
+    <t>Program,DSH,Aggregation Affiliation,Affiliate Group,SOAR,N/A</t>
+  </si>
+  <si>
+    <t>DSH</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>SOAR</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7421:Create New Membership Provider with type "DSH"</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7420:Create New Membership Provider with type "Program"</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7423:Create New Membership Provider with type "SOAR"</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7473:Change Account status to inactive for a Membership Provider with type "SOAR"</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7474:Change Account status to Terminated for a Membership Provider with type "Aggregation Affiliation"</t>
+  </si>
+  <si>
+    <t>AccountStatus</t>
+  </si>
+  <si>
+    <t>Terminated</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7491:Create New Business Partner account using member supervisor</t>
+  </si>
+  <si>
+    <t>New Business Partner</t>
+  </si>
+  <si>
+    <t>Business Partner</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1111:Create Supplier with all available fields</t>
+  </si>
+  <si>
+    <t>Supplier with all available fields</t>
+  </si>
+  <si>
+    <t>accountName2</t>
+  </si>
+  <si>
+    <t>verifyCAMSFlag</t>
+  </si>
+  <si>
+    <t>stockSymbol</t>
+  </si>
+  <si>
+    <t>deliveryInfo</t>
+  </si>
+  <si>
+    <t>mainPhone</t>
+  </si>
+  <si>
+    <t>receiveDirectMail</t>
+  </si>
+  <si>
+    <t>doNotVerifyAddress</t>
+  </si>
+  <si>
+    <t>verifyIsTopParent</t>
+  </si>
+  <si>
+    <t>overrideName</t>
+  </si>
+  <si>
+    <t>Account name2</t>
+  </si>
+  <si>
+    <t>Test exchange</t>
+  </si>
+  <si>
+    <t>Override name</t>
+  </si>
+  <si>
+    <t>memberRecord</t>
+  </si>
+  <si>
+    <t>verifyHIBCC</t>
+  </si>
+  <si>
+    <t>verifyNoNewProducts</t>
+  </si>
+  <si>
+    <t>Amalgamated Transit Union</t>
+  </si>
+  <si>
+    <t>verifyTopParent</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Account name changed with LM</t>
+  </si>
+  <si>
+    <t>Update account name2 with LM</t>
+  </si>
+  <si>
+    <t>5987642159</t>
+  </si>
+  <si>
+    <t>198 33rd St</t>
+  </si>
+  <si>
+    <t>VerifyRecordChangeStatus</t>
+  </si>
+  <si>
+    <t>1000194141</t>
+  </si>
+  <si>
+    <t>2000424828</t>
+  </si>
+  <si>
+    <t>corp\crmtest10</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7485:Verify on "Update" following fields in Limited Member ,"Record status" should get changed to Need Approval.</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>CrmNumber2</t>
+  </si>
+  <si>
+    <t>CrmNumber3</t>
+  </si>
+  <si>
+    <t>2000444770</t>
+  </si>
+  <si>
+    <t>2000103171</t>
+  </si>
+  <si>
+    <t>Child Account Business Key cannot be activated when key is not active in Parent Account!</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>Parent Account Business Key cannot be deactivated when key is active in Child Account!</t>
+  </si>
+  <si>
+    <t>ErrorMessage1</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>TFS ID_ 7608:Create a new contact and add job function and communication/publication</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>TFS ID_ 4549:Verify once the Contact's relationship end date is updated then its job function and communications should get terminated</t>
+  </si>
+  <si>
+    <t>TFS ID_ 4550:Verify once the contact is end dated then the related Contact Account Association should get terminated</t>
+  </si>
+  <si>
+    <t>TC7608</t>
+  </si>
+  <si>
+    <t>primaryAccount</t>
+  </si>
+  <si>
+    <t>1000155094</t>
+  </si>
+  <si>
+    <t>recordStatus</t>
+  </si>
+  <si>
+    <t>contactRelationshipEndDate</t>
+  </si>
+  <si>
+    <t>jobFunction</t>
+  </si>
+  <si>
+    <t>Bid Proposal Team</t>
+  </si>
+  <si>
+    <t>communicationPublication</t>
+  </si>
+  <si>
+    <t>Roster - Hierarchy Roster</t>
+  </si>
+  <si>
+    <t>contactRecordStatus</t>
+  </si>
+  <si>
+    <t>terminationStatus</t>
+  </si>
+  <si>
+    <t>TC4550</t>
+  </si>
+  <si>
+    <t>TC4549</t>
+  </si>
+  <si>
+    <t>TFS ID_ 4548: Verify if duplicate contact account association cannot be created for any contact</t>
+  </si>
+  <si>
+    <t>A Contact Account Association record already exists for the current relationsh</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
+  </si>
+  <si>
+    <t>Billstra Pharmacy</t>
+  </si>
+  <si>
+    <t>TC4548</t>
+  </si>
+  <si>
+    <t>TC6576</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5137:Restrict when user enters blank communication record in Contact account associations</t>
+  </si>
+  <si>
+    <t>7000552343</t>
+  </si>
+  <si>
+    <t>activeContact</t>
+  </si>
+  <si>
+    <t>TFS ID_ 5136:Restrict when user enters blank job function in Contact account associations</t>
+  </si>
+  <si>
+    <t>TFS ID_ 6576:Verify Duplicate detection rule applies when Communication or Publication entered twice by the user</t>
+  </si>
+  <si>
+    <t>Premier</t>
+  </si>
+  <si>
+    <t>MembershipProvider</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>contactEndDate</t>
+  </si>
+  <si>
+    <t>1/1/2024</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1136: Validate deactivating a contact result in updating the contact end date and inactivating the contact account association records</t>
+  </si>
+  <si>
+    <t>TFS ID_ 4547:Verify if primary account of a contact has been changed then other associated Contact account association should not get end dated/terminated</t>
+  </si>
+  <si>
+    <t>primaryAccount1</t>
+  </si>
+  <si>
+    <t>Billsby</t>
+  </si>
+  <si>
+    <t>No Contact Job Functions found for this Contact Account Association. Select Add (+).</t>
+  </si>
+  <si>
+    <t>errorMessage1</t>
+  </si>
+  <si>
+    <t>No Contact Communications found for this Contact Account Association. Select Add (+).</t>
+  </si>
+  <si>
+    <t>3/4/2021</t>
+  </si>
+  <si>
+    <t>TFS ID_ 1111:Create Member with all available fields</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>2000462918</t>
+  </si>
+  <si>
+    <t>693630157</t>
+  </si>
+  <si>
+    <t>corp\crmtest06</t>
+  </si>
+  <si>
     <t>RunMode</t>
   </si>
   <si>
-    <t>defaultAccountStatus</t>
-  </si>
-  <si>
-    <t>defaultAccountType</t>
-  </si>
-  <si>
-    <t>accountName</t>
-  </si>
-  <si>
-    <t>premierStartDate</t>
-  </si>
-  <si>
-    <t>businessClassification</t>
-  </si>
-  <si>
-    <t>selectTPRelationDate</t>
-  </si>
-  <si>
-    <t>street1</t>
-  </si>
-  <si>
-    <t>zipCode</t>
-  </si>
-  <si>
-    <t>recordStatusPublished</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>11/23/2020</t>
-  </si>
-  <si>
-    <t>Service Agreement</t>
-  </si>
-  <si>
-    <t>TFS ID_ 5921 : Create a supplier top parent</t>
-  </si>
-  <si>
-    <t>CRMNumber</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>TimeStamp</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7137:Create new member - New Member form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>TFS ID_7138:Create new member - New Member form through sub account and save it as prospect first</t>
-  </si>
-  <si>
-    <t>TFS ID_7139:Create new member - New Member entry form through sub account and save it as prospect first</t>
-  </si>
-  <si>
-    <t>TFS ID_7140: Create new member - New Member entry form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>ReleaseCategory</t>
-  </si>
-  <si>
-    <t>673415</t>
-  </si>
-  <si>
-    <t>VerifyIsCorporateAccount</t>
-  </si>
-  <si>
-    <t>VerifyCorporateParentName</t>
-  </si>
-  <si>
-    <t>Yankee Alliance</t>
-  </si>
-  <si>
-    <t>VerifyIsFoodServiceParent</t>
-  </si>
-  <si>
-    <t>VerifyFoodServiceParentName</t>
-  </si>
-  <si>
-    <t>VerifySponsor</t>
-  </si>
-  <si>
-    <t>VerifyIsSponsor</t>
-  </si>
-  <si>
-    <t>12/23/2020</t>
-  </si>
-  <si>
-    <t>TFS ID_7141:Create new member - New Member form and Save it as member first</t>
-  </si>
-  <si>
-    <t>Member_7141_12212020</t>
-  </si>
-  <si>
-    <t>Member_7137_12212020</t>
-  </si>
-  <si>
-    <t>TFS ID_7142: Create new member - New Member entry form and Save it as member first</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>Member_7142_12212020</t>
-  </si>
-  <si>
-    <t>Member_7140_12212020</t>
-  </si>
-  <si>
-    <t>Member_7138_12212020</t>
-  </si>
-  <si>
-    <t>Member_7139_12212020</t>
-  </si>
-  <si>
-    <t>TFS ID_7143:Create new Top Parent member - New Member form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>TFS ID_7144:Create new Top Parent member - New Member form and Save it as Member first</t>
-  </si>
-  <si>
-    <t>TP_7143_12302020</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Acurity</t>
-  </si>
-  <si>
-    <t>TopParentClassification</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>TP_7144_12302020</t>
-  </si>
-  <si>
-    <t>FeeShareEligibleStartDate</t>
-  </si>
-  <si>
-    <t>FBOType</t>
-  </si>
-  <si>
-    <t>FBOEffectiveDate</t>
-  </si>
-  <si>
-    <t>isFBO</t>
-  </si>
-  <si>
-    <t>corp\crmtest01</t>
-  </si>
-  <si>
-    <t>Owned</t>
-  </si>
-  <si>
-    <t>Affiliate NonAcute</t>
-  </si>
-  <si>
-    <t>AffiliateGroup</t>
-  </si>
-  <si>
-    <t>AffiliateGroupEffectiveDate</t>
-  </si>
-  <si>
-    <t>VerifyDirectParentRelation</t>
-  </si>
-  <si>
-    <t>TFS ID_7152: Create new Mail to account - New Member form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>TFS ID_7151:Create new Bill to account - New Member form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>Member_7152_12212020</t>
-  </si>
-  <si>
-    <t>Member_7151_12212020</t>
-  </si>
-  <si>
-    <t>Mail To</t>
-  </si>
-  <si>
-    <t>TFS ID_7146:Create new Shipto account - New Member form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>Bill To</t>
-  </si>
-  <si>
-    <t>TFS ID_7148:Create new Shipto account - New Member entry form and Save it as prospect first</t>
-  </si>
-  <si>
-    <t>Member_7146_12212020</t>
-  </si>
-  <si>
-    <t>Member_7148_12212020</t>
-  </si>
-  <si>
-    <t>TFS ID_7147:Create new Shipto account - New Member form through sub account and save it as prospect first</t>
-  </si>
-  <si>
-    <t>Member_7147_12212020</t>
-  </si>
-  <si>
-    <t>VerifyTopParent</t>
-  </si>
-  <si>
-    <t>VerifyDirectParent</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>TFS ID_7149:Create new Shipto account for conversion scenario - New Member form and Save it as member first</t>
-  </si>
-  <si>
-    <t>TFS ID_7312: Add and update Primary contact to a Member account</t>
-  </si>
-  <si>
-    <t>PrimaryContact</t>
-  </si>
-  <si>
-    <t>PrimaryContactName</t>
-  </si>
-  <si>
-    <t>PrimaryContactLookUp</t>
-  </si>
-  <si>
-    <t>PrimaryContactNameLookUp</t>
+    <t>No Run</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>TC1136</t>
+  </si>
+  <si>
+    <t>TC4547</t>
+  </si>
+  <si>
+    <t>Mship Prov With Program</t>
+  </si>
+  <si>
+    <t>Mship Provi With DSH</t>
+  </si>
+  <si>
+    <t>Mship Provider With AA</t>
+  </si>
+  <si>
+    <t>Mship Provider With SOAR</t>
+  </si>
+  <si>
+    <t>StatusInactive 4 Mem Prov SOAR</t>
+  </si>
+  <si>
+    <t>StatusTermi 4 Mem Prov AA</t>
   </si>
   <si>
     <t>https://crmstage.premierinc.com/</t>
   </si>
   <si>
-    <t>Environment</t>
-  </si>
-  <si>
-    <t>7000331193</t>
-  </si>
-  <si>
-    <t>7000133221</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>TFS ID_7313:Verify Account status is defaulted to Active on a member &amp; member entry form</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Behnke, Jennie</t>
-  </si>
-  <si>
-    <t>TFS ID_7150: Create new Shipto to main account conversionClose</t>
-  </si>
-  <si>
-    <t>Member_7149_12212020</t>
-  </si>
-  <si>
-    <t>Member_7150_12212020</t>
-  </si>
-  <si>
-    <t>Member_7312_12212020</t>
-  </si>
-  <si>
-    <t>recordChangeStatus</t>
-  </si>
-  <si>
-    <t>directParent</t>
-  </si>
-  <si>
-    <t>selectDPRelationDate</t>
-  </si>
-  <si>
-    <t>storeLocationType</t>
-  </si>
-  <si>
-    <t>addSupplierPrimaryContact</t>
-  </si>
-  <si>
-    <t>crmNumberInput</t>
-  </si>
-  <si>
-    <t>verifyEntityCode</t>
-  </si>
-  <si>
-    <t>verifyRecordStatus</t>
-  </si>
-  <si>
-    <t>verifyRecordChangeStatus</t>
-  </si>
-  <si>
-    <t>verifyAccountName</t>
-  </si>
-  <si>
-    <t>verifyPrimaryContactValue</t>
-  </si>
-  <si>
-    <t>expectedAccountStatusErrorText</t>
-  </si>
-  <si>
-    <t>verifyDPValue</t>
-  </si>
-  <si>
-    <t>corp\crmtest04</t>
-  </si>
-  <si>
-    <t>Create Supplier TP</t>
-  </si>
-  <si>
-    <t>TFS ID_ 5757: Supplier account can not be inactive</t>
-  </si>
-  <si>
-    <t>Check Supplier Account Status</t>
-  </si>
-  <si>
-    <t>Distributor</t>
-  </si>
-  <si>
-    <t>254 33rd St</t>
-  </si>
-  <si>
-    <t>Supplier cannot be made Inactive</t>
-  </si>
-  <si>
-    <t>TFS ID_ 5911: Add a primary contact to a supplier</t>
-  </si>
-  <si>
-    <t>Add Primary Contact to Supplier</t>
-  </si>
-  <si>
-    <t>12/29/2020</t>
-  </si>
-  <si>
-    <t>Wholesaler</t>
-  </si>
-  <si>
-    <t>255 33rd St</t>
-  </si>
-  <si>
-    <t>7000309682</t>
-  </si>
-  <si>
-    <t>Almon, Helen</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7153: Create a supplier Top Parent- Save using Supplier Login and but not able to Publish</t>
-  </si>
-  <si>
-    <t>corp\crmtest03</t>
-  </si>
-  <si>
-    <t>Create TP with Supplier Login</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>256 33rd St</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7154 :Create a supplier under a DP and save using Supplier Login</t>
-  </si>
-  <si>
-    <t>Create a Supplier under DP with Supplier Login</t>
-  </si>
-  <si>
-    <t>823260</t>
-  </si>
-  <si>
-    <t>257 33rd St</t>
-  </si>
-  <si>
-    <t>1000Bulbs.com</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7159 :Create a supplier under DP -Save and Publish Supplier Supervisor Login</t>
-  </si>
-  <si>
-    <t>Publish Supplier under DP with Supplier  Supervisor Login</t>
-  </si>
-  <si>
-    <t>12/30/2020</t>
-  </si>
-  <si>
-    <t>258 33rd St</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7155 :Publish an existing supplier using Supplier  Supervisor Login</t>
-  </si>
-  <si>
-    <t>Publish an existing supplier using Supplier  Supervisor Login</t>
-  </si>
-  <si>
-    <t>12/30/2021</t>
-  </si>
-  <si>
-    <t>1000162819</t>
-  </si>
-  <si>
-    <t>7 Oaks Pharmaceutical</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7160 :Create a supplier -Ship To Location Type -Save and Publish Supplier Supervisor Login</t>
-  </si>
-  <si>
-    <t>Create a supplier -Ship To Location Type -Save and Publish Supplier Supervisor Login</t>
-  </si>
-  <si>
-    <t>260 33rd St</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7161 :Convert a Supplier Ship To Location Type to Main Account using Supplier  Supervisor Login</t>
-  </si>
-  <si>
-    <t>Convert a Supplier Ship To Location Type to Main Account using Supplier  Supervisor Login</t>
-  </si>
-  <si>
-    <t>1/5/2021</t>
-  </si>
-  <si>
-    <t>2000336450</t>
-  </si>
-  <si>
-    <t>635140</t>
-  </si>
-  <si>
-    <t>3dr Laboratories, LLC</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7162 :Convert a Supplier Main Account to Ship To Location Type Account using Supplier  Supervisor Login</t>
-  </si>
-  <si>
-    <t>Convert a Supplier Main Account to Ship To Location Type Account using Supplier  Supervisor Login</t>
-  </si>
-  <si>
-    <t>2000451047</t>
-  </si>
-  <si>
-    <t>AD7516</t>
-  </si>
-  <si>
-    <t>613med Solutions</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7157:Modify Address in an existing Supplier Account as a Supplier Supervisor and Verify Record Change Status</t>
-  </si>
-  <si>
-    <t>Approved</t>
-  </si>
-  <si>
-    <t>Modify Address as a Supplier Supervisor</t>
-  </si>
-  <si>
-    <t>265 33rd St</t>
-  </si>
-  <si>
-    <t>2000141830</t>
-  </si>
-  <si>
-    <t>804679</t>
-  </si>
-  <si>
-    <t>180 Innovations LLC</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7158:Modify Address in an existing Supplier Account as a Supplier and Verify Record Change Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modify Address as a Supplier </t>
-  </si>
-  <si>
-    <t>266 33rd St</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000141844 </t>
-  </si>
-  <si>
-    <t>826992</t>
-  </si>
-  <si>
-    <t>Needs Approval</t>
-  </si>
-  <si>
-    <t>2 Unique Caterers and Event Planners Inc</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7156:Modify Address in an existing Supplier Account and re-publish as a Supplier Supervisor. Same Entity code should be retained</t>
-  </si>
-  <si>
-    <t>267 33rd St</t>
-  </si>
-  <si>
-    <t>2000141843</t>
-  </si>
-  <si>
-    <t>739125</t>
-  </si>
-  <si>
-    <t>2 Degrees, Inc</t>
-  </si>
-  <si>
-    <t>1/4/2021</t>
-  </si>
-  <si>
-    <t>TFS ID_ 1141 : Validate Business Key</t>
-  </si>
-  <si>
-    <t>Member_1141_11302020</t>
-  </si>
-  <si>
-    <t>CrmNumber</t>
-  </si>
-  <si>
-    <t>CrmNumber1</t>
-  </si>
-  <si>
-    <t>BusinessClassification</t>
-  </si>
-  <si>
-    <t>2000141844</t>
-  </si>
-  <si>
-    <t>2000456753</t>
-  </si>
-  <si>
-    <t>No Run</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2000456755</t>
-  </si>
-  <si>
-    <t>2000456756</t>
-  </si>
-  <si>
-    <t>2000456757</t>
-  </si>
-  <si>
-    <t>2000456759</t>
-  </si>
-  <si>
-    <t>2000456760</t>
-  </si>
-  <si>
-    <t>2000456761</t>
-  </si>
-  <si>
-    <t>AccountName2</t>
-  </si>
-  <si>
-    <t>AcountStatus</t>
-  </si>
-  <si>
-    <t>ExcludeFromRoaster</t>
-  </si>
-  <si>
-    <t>SupplierRecord</t>
-  </si>
-  <si>
-    <t>Ownership</t>
-  </si>
-  <si>
-    <t>Exchange</t>
-  </si>
-  <si>
-    <t>CorporateRebate</t>
-  </si>
-  <si>
-    <t>HIN</t>
-  </si>
-  <si>
-    <t>Street2</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>OverrideName</t>
-  </si>
-  <si>
-    <t>MainPhone</t>
-  </si>
-  <si>
-    <t>OtherPhone</t>
-  </si>
-  <si>
-    <t>Fax</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>FSRPTFlag</t>
-  </si>
-  <si>
-    <t>DoNotVerifyAddress</t>
-  </si>
-  <si>
-    <t>ExternalAddessID</t>
-  </si>
-  <si>
-    <t>MembershipProviderType</t>
-  </si>
-  <si>
-    <t>IsTopParent</t>
-  </si>
-  <si>
-    <t>CorpParentOverride</t>
-  </si>
-  <si>
-    <t>FBOManualOverride</t>
-  </si>
-  <si>
-    <t>FBOGPO</t>
-  </si>
-  <si>
-    <t>ReceiveDirectMail</t>
-  </si>
-  <si>
-    <t>Create member with all available fields2</t>
-  </si>
-  <si>
-    <t>VerifyCAMSFlag</t>
-  </si>
-  <si>
-    <t>VerifyPremierOwner</t>
-  </si>
-  <si>
-    <t>VerifyBKActive</t>
-  </si>
-  <si>
-    <t>Apara Care</t>
-  </si>
-  <si>
-    <t>Public</t>
-  </si>
-  <si>
-    <t>ChangeRecordStatus</t>
-  </si>
-  <si>
-    <t>Not Applicable</t>
-  </si>
-  <si>
-    <t>Create member with all available fields</t>
-  </si>
-  <si>
-    <t>02/02/2021</t>
-  </si>
-  <si>
-    <t>Alternate Markets</t>
-  </si>
-  <si>
-    <t>Non-Healthcare</t>
-  </si>
-  <si>
-    <t>StockSymbol</t>
-  </si>
-  <si>
-    <t>Stock Symbol test</t>
-  </si>
-  <si>
-    <t>PaymentEntity</t>
-  </si>
-  <si>
-    <t>VerifyGroup</t>
-  </si>
-  <si>
-    <t>VerifyFacilityType</t>
-  </si>
-  <si>
-    <t>1 Senior Care</t>
-  </si>
-  <si>
-    <t>VerifyIsPaymentEntity</t>
-  </si>
-  <si>
-    <t>TFS ID_ 1111:Create Membe with all available fields</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>CorporateRebateFeeDate</t>
-  </si>
-  <si>
-    <t>Street2 test</t>
-  </si>
-  <si>
-    <t>DeliveryInfo</t>
-  </si>
-  <si>
-    <t>Delivery info test</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>OverrideName Test</t>
-  </si>
-  <si>
-    <t>test@test.com</t>
-  </si>
-  <si>
-    <t>FSPOverride</t>
-  </si>
-  <si>
-    <t>456987123</t>
-  </si>
-  <si>
-    <t>5987642158</t>
-  </si>
-  <si>
-    <t>DEANumber</t>
-  </si>
-  <si>
-    <t>2/2/2021</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7422:Create New Membership Provider with type "Aggregation Affiliation"</t>
-  </si>
-  <si>
-    <t>Membership Provider</t>
-  </si>
-  <si>
-    <t>MembershipProviderTypeOptions</t>
-  </si>
-  <si>
-    <t>Aggregation Affiliation</t>
-  </si>
-  <si>
-    <t>2000456969</t>
-  </si>
-  <si>
-    <t>868494489</t>
-  </si>
-  <si>
-    <t>ak4789509</t>
-  </si>
-  <si>
-    <t>1000155584</t>
-  </si>
-  <si>
-    <t>MembershipProviderStartDate</t>
-  </si>
-  <si>
-    <t>Program,DSH,Aggregation Affiliation,Affiliate Group,SOAR,N/A</t>
-  </si>
-  <si>
-    <t>DSH</t>
-  </si>
-  <si>
-    <t>Program</t>
-  </si>
-  <si>
-    <t>SOAR</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7421:Create New Membership Provider with type "DSH"</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7420:Create New Membership Provider with type "Program"</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7423:Create New Membership Provider with type "SOAR"</t>
-  </si>
-  <si>
-    <t>Membership Provider With Program</t>
-  </si>
-  <si>
-    <t>Membership Provider With DSH</t>
-  </si>
-  <si>
-    <t>Membership Provider With AggregationAffiliation</t>
-  </si>
-  <si>
-    <t>Membership Provider With SOAR</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7473:Change Account status to inactive for a Membership Provider with type "SOAR"</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7474:Change Account status to Terminated for a Membership Provider with type "Aggregation Affiliation"</t>
-  </si>
-  <si>
-    <t>Change Status to Inactive for membership Provider With SOAR</t>
-  </si>
-  <si>
-    <t>Change Status to Terminated foMembership Provider With AggregationAffiliation</t>
-  </si>
-  <si>
-    <t>AccountStatus</t>
-  </si>
-  <si>
-    <t>Terminated</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7491:Create New Business Partner account using member supervisor</t>
-  </si>
-  <si>
-    <t>New Business Partner</t>
-  </si>
-  <si>
-    <t>1000039759</t>
-  </si>
-  <si>
-    <t>Business Partner</t>
-  </si>
-  <si>
-    <t>TFS ID_ 1111:Create Supplier with all available fields</t>
-  </si>
-  <si>
-    <t>Supplier with all available fields</t>
-  </si>
-  <si>
-    <t>accountName2</t>
-  </si>
-  <si>
-    <t>verifyCAMSFlag</t>
-  </si>
-  <si>
-    <t>stockSymbol</t>
-  </si>
-  <si>
-    <t>deliveryInfo</t>
-  </si>
-  <si>
-    <t>mainPhone</t>
-  </si>
-  <si>
-    <t>receiveDirectMail</t>
-  </si>
-  <si>
-    <t>doNotVerifyAddress</t>
-  </si>
-  <si>
-    <t>verifyIsTopParent</t>
-  </si>
-  <si>
-    <t>overrideName</t>
-  </si>
-  <si>
-    <t>Account name2</t>
-  </si>
-  <si>
-    <t>Test exchange</t>
-  </si>
-  <si>
-    <t>Override name</t>
-  </si>
-  <si>
-    <t>memberRecord</t>
-  </si>
-  <si>
-    <t>verifyHIBCC</t>
-  </si>
-  <si>
-    <t>verifyNoNewProducts</t>
-  </si>
-  <si>
-    <t>Amalgamated Transit Union</t>
-  </si>
-  <si>
-    <t>verifyTopParent</t>
-  </si>
-  <si>
-    <t>2000462213</t>
-  </si>
-  <si>
-    <t>2000462215</t>
-  </si>
-  <si>
-    <t>2000462216</t>
-  </si>
-  <si>
-    <t>2000462217</t>
-  </si>
-  <si>
-    <t>2000462220</t>
-  </si>
-  <si>
-    <t>Pharmacy</t>
-  </si>
-  <si>
-    <t>Account name changed with LM</t>
-  </si>
-  <si>
-    <t>Update account name2 with LM</t>
-  </si>
-  <si>
-    <t>5987642159</t>
-  </si>
-  <si>
-    <t>198 33rd St</t>
-  </si>
-  <si>
-    <t>VerifyRecordChangeStatus</t>
-  </si>
-  <si>
-    <t>1000194141</t>
-  </si>
-  <si>
-    <t>2000424828</t>
-  </si>
-  <si>
-    <t>corp\crmtest10</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7485:Verify on "Update" following fields in Limited Member ,"Record status" should get changed to Need Approval.</t>
-  </si>
-  <si>
-    <t>TX</t>
+    <t>PASSED</t>
   </si>
   <si>
     <t>https://crminternalstage.premierinc.com/PRESIT/main.aspx#884115409</t>
   </si>
   <si>
-    <t>CrmNumber2</t>
-  </si>
-  <si>
-    <t>CrmNumber3</t>
-  </si>
-  <si>
-    <t>2000444770</t>
-  </si>
-  <si>
-    <t>2000103171</t>
-  </si>
-  <si>
-    <t>Child Account Business Key cannot be activated when key is not active in Parent Account!</t>
-  </si>
-  <si>
-    <t>ErrorMessage</t>
-  </si>
-  <si>
-    <t>Parent Account Business Key cannot be deactivated when key is active in Child Account!</t>
-  </si>
-  <si>
-    <t>ErrorMessage1</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>smoke</t>
-  </si>
-  <si>
-    <t>TFS ID_ 7608:Create a new contact and add job function and communication/publication</t>
-  </si>
-  <si>
-    <t>firstName</t>
-  </si>
-  <si>
-    <t>lastName</t>
-  </si>
-  <si>
-    <t>TFS ID_ 4549:Verify once the Contact's relationship end date is updated then its job function and communications should get terminated</t>
-  </si>
-  <si>
-    <t>TFS ID_ 4550:Verify once the contact is end dated then the related Contact Account Association should get terminated</t>
-  </si>
-  <si>
-    <t>TC7608</t>
-  </si>
-  <si>
-    <t>primaryAccount</t>
-  </si>
-  <si>
-    <t>1000155094</t>
-  </si>
-  <si>
-    <t>recordStatus</t>
-  </si>
-  <si>
-    <t>contactRelationshipEndDate</t>
-  </si>
-  <si>
-    <t>jobFunction</t>
-  </si>
-  <si>
-    <t>Bid Proposal Team</t>
-  </si>
-  <si>
-    <t>communicationPublication</t>
-  </si>
-  <si>
-    <t>Roster - Hierarchy Roster</t>
-  </si>
-  <si>
-    <t>7000552307</t>
-  </si>
-  <si>
-    <t>contactRecordStatus</t>
-  </si>
-  <si>
-    <t>terminationStatus</t>
-  </si>
-  <si>
-    <t>TC4550</t>
-  </si>
-  <si>
-    <t>TC4549</t>
-  </si>
-  <si>
-    <t>TFS ID_ 4548: Verify if duplicate contact account association cannot be created for any contact</t>
-  </si>
-  <si>
-    <t>A Contact Account Association record already exists for the current relationsh</t>
-  </si>
-  <si>
-    <t>errorMessage</t>
-  </si>
-  <si>
-    <t>Billstra Pharmacy</t>
-  </si>
-  <si>
-    <t>7000552336</t>
-  </si>
-  <si>
-    <t>TC4548</t>
-  </si>
-  <si>
-    <t>TC6576</t>
-  </si>
-  <si>
-    <t>7000552341</t>
-  </si>
-  <si>
-    <t>TFS ID_ 5137:Restrict when user enters blank communication record in Contact account associations</t>
-  </si>
-  <si>
-    <t>7000552343</t>
-  </si>
-  <si>
-    <t>activeContact</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>TFS ID_ 5136:Restrict when user enters blank job function in Contact account associations</t>
-  </si>
-  <si>
-    <t>TFS ID_ 6576:Verify Duplicate detection rule applies when Communication or Publication entered twice by the user</t>
-  </si>
-  <si>
-    <t>2000462427</t>
-  </si>
-  <si>
-    <t>2000462428</t>
-  </si>
-  <si>
-    <t>2000462429</t>
-  </si>
-  <si>
-    <t>Premier</t>
-  </si>
-  <si>
-    <t>MembershipProvider</t>
-  </si>
-  <si>
-    <t>National</t>
-  </si>
-  <si>
-    <t>2000462464</t>
-  </si>
-  <si>
-    <t>contactEndDate</t>
-  </si>
-  <si>
-    <t>2000462466</t>
-  </si>
-  <si>
-    <t>7000552394</t>
-  </si>
-  <si>
-    <t>2021_03_08_04_17_36</t>
+    <t>7000552692</t>
+  </si>
+  <si>
+    <t>4000463259</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_09_19</t>
+  </si>
+  <si>
+    <t>4000463260</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_12_27</t>
+  </si>
+  <si>
+    <t>4000463261</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_15_54</t>
+  </si>
+  <si>
+    <t>4000463263</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_19_22</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_22_40</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_25_57</t>
+  </si>
+  <si>
+    <t>4000463267</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_29_40</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_33_13</t>
+  </si>
+  <si>
+    <t>4000463269</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_36_05</t>
+  </si>
+  <si>
+    <t>4000463270</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_39_09</t>
+  </si>
+  <si>
+    <t>4000463271</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_42_04</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_44_46</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_48_08</t>
+  </si>
+  <si>
+    <t>4000463274</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_50_58</t>
+  </si>
+  <si>
+    <t>4000463275</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_53_49</t>
+  </si>
+  <si>
+    <t>2021_03_23_10_56_40</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_00_18</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_01_28</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_03_00</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_04_41</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_06_16</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_07_40</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_09_11</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_10_51</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_12_07</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_13_48</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_15_18</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_16_44</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_18_27</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_19_47</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_21_17</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_24_41</t>
+  </si>
+  <si>
+    <t>4000463286</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_26_50</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_28_38</t>
+  </si>
+  <si>
+    <t>4000463287</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_30_46</t>
+  </si>
+  <si>
+    <t>4000463288</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_32_52</t>
+  </si>
+  <si>
+    <t>4000463289</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_36_00</t>
+  </si>
+  <si>
+    <t>4000463290</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_39_09</t>
+  </si>
+  <si>
+    <t>4000463291</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_41_18</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_43_21</t>
+  </si>
+  <si>
+    <t>7000552715</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_45_50</t>
+  </si>
+  <si>
+    <t>7000552716</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_49_22</t>
+  </si>
+  <si>
+    <t>7000552717</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_52_10</t>
+  </si>
+  <si>
+    <t>7000552718</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_54_22</t>
+  </si>
+  <si>
+    <t>7000552719</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_58_09</t>
+  </si>
+  <si>
+    <t>2021_03_23_11_59_36</t>
+  </si>
+  <si>
+    <t>2021_03_23_12_00_59</t>
+  </si>
+  <si>
+    <t>7000552720</t>
+  </si>
+  <si>
+    <t>2021_03_23_12_04_31</t>
+  </si>
+  <si>
+    <t>1000174081</t>
   </si>
 </sst>
 </file>
@@ -1278,7 +1476,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1369,8 +1567,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1413,6 +1617,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1451,7 +1661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1487,9 +1697,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1508,7 +1715,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -1523,18 +1729,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1851,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{088699A3-39D2-44E6-8F71-47C2709580BF}">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1878,1041 +2094,1041 @@
         <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>63</v>
+      <c r="B2" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
+        <v>407</v>
       </c>
       <c r="H2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>354</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>67</v>
+      <c r="E3" t="s">
+        <v>66</v>
       </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>393</v>
       </c>
       <c r="G3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+      <c r="H3" t="s">
+        <v>408</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G4" t="s">
-        <v>226</v>
+        <v>411</v>
       </c>
       <c r="H4" t="s">
-        <v>400</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G5" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="H5" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
-      </c>
-      <c r="H6" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G7" t="s">
-        <v>226</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>81</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G8" t="s">
-        <v>226</v>
+        <v>417</v>
+      </c>
+      <c r="H8" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="40" t="s">
         <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H9" t="s">
-        <v>340</v>
+        <v>418</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>88</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G10" t="s">
-        <v>226</v>
+        <v>420</v>
+      </c>
+      <c r="H10" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>110</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" t="s">
-        <v>225</v>
+        <v>66</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>403</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>422</v>
       </c>
       <c r="H11" t="s">
-        <v>341</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>115</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>225</v>
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>403</v>
       </c>
       <c r="G12" t="s">
-        <v>226</v>
+        <v>424</v>
       </c>
       <c r="H12" t="s">
-        <v>342</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>112</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H13" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>120</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>225</v>
+        <v>393</v>
       </c>
       <c r="G14" t="s">
-        <v>226</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>134</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>105</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" t="s">
-        <v>225</v>
+        <v>66</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>403</v>
       </c>
       <c r="G15" t="s">
-        <v>226</v>
+        <v>428</v>
+      </c>
+      <c r="H15" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>106</v>
+        <v>16</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>104</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>225</v>
+        <v>66</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>403</v>
       </c>
       <c r="G16" t="s">
-        <v>226</v>
+        <v>430</v>
       </c>
       <c r="H16" t="s">
-        <v>344</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>105</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>214</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>225</v>
+        <v>130</v>
+      </c>
+      <c r="F17" t="s">
+        <v>403</v>
       </c>
       <c r="G17" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" t="s">
-        <v>224</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>121</v>
+      <c r="B18" s="40" t="s">
+        <v>120</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G18" t="s">
-        <v>226</v>
+        <v>432</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>131</v>
+      <c r="B19" s="40" t="s">
+        <v>129</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F19" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G19" t="s">
-        <v>226</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>218</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>55</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>132</v>
+        <v>60</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G20" t="s">
-        <v>226</v>
+        <v>434</v>
+      </c>
+      <c r="H20" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>56</v>
+        <v>21</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>151</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G21" t="s">
-        <v>226</v>
+        <v>435</v>
       </c>
       <c r="H21" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>153</v>
+        <v>22</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G22" t="s">
-        <v>226</v>
+        <v>436</v>
       </c>
       <c r="H22" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>158</v>
+        <v>23</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>163</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G23" t="s">
-        <v>226</v>
-      </c>
-      <c r="H23" t="s">
-        <v>229</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>165</v>
+        <v>24</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>168</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G24" t="s">
-        <v>226</v>
+        <v>438</v>
+      </c>
+      <c r="H24" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>170</v>
+        <v>25</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F25" t="s">
+        <v>403</v>
+      </c>
+      <c r="G25" t="s">
+        <v>439</v>
+      </c>
+      <c r="H25" t="s">
         <v>225</v>
-      </c>
-      <c r="G25" t="s">
-        <v>226</v>
-      </c>
-      <c r="H25" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>175</v>
+        <v>26</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>177</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" t="s">
-        <v>225</v>
+        <v>60</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>403</v>
       </c>
       <c r="G26" t="s">
-        <v>226</v>
+        <v>440</v>
       </c>
       <c r="H26" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>179</v>
+        <v>27</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>182</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="25" t="s">
-        <v>225</v>
+        <v>60</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>403</v>
       </c>
       <c r="G27" t="s">
+        <v>441</v>
+      </c>
+      <c r="H27" t="s">
         <v>226</v>
-      </c>
-      <c r="H27" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>184</v>
+        <v>28</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>185</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G28" t="s">
-        <v>226</v>
+        <v>442</v>
       </c>
       <c r="H28" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>187</v>
+        <v>29</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G29" t="s">
-        <v>226</v>
+        <v>443</v>
       </c>
       <c r="H29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>193</v>
+        <v>30</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G30" t="s">
-        <v>226</v>
+        <v>444</v>
       </c>
       <c r="H30" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>198</v>
+        <v>31</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>201</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G31" t="s">
-        <v>226</v>
+        <v>445</v>
       </c>
       <c r="H31" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>205</v>
+        <v>32</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>208</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G32" t="s">
-        <v>226</v>
+        <v>446</v>
       </c>
       <c r="H32" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>212</v>
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>386</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F33" t="s">
-        <v>225</v>
+        <v>393</v>
       </c>
       <c r="G33" t="s">
-        <v>226</v>
+        <v>447</v>
       </c>
       <c r="H33" t="s">
-        <v>214</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="24" t="s">
-        <v>67</v>
+      <c r="E34" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F34" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G34" t="s">
-        <v>226</v>
+        <v>449</v>
       </c>
       <c r="H34" t="s">
-        <v>294</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="24" t="s">
-        <v>67</v>
+      <c r="E35" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>225</v>
+        <v>393</v>
       </c>
       <c r="G35" t="s">
-        <v>226</v>
+        <v>450</v>
       </c>
       <c r="H35" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="24" t="s">
-        <v>67</v>
+      <c r="E36" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G36" t="s">
-        <v>226</v>
+        <v>452</v>
       </c>
       <c r="H36" t="s">
-        <v>226</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="24" t="s">
-        <v>67</v>
+      <c r="E37" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F37" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G37" t="s">
-        <v>226</v>
+        <v>454</v>
       </c>
       <c r="H37" t="s">
-        <v>226</v>
+        <v>453</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="24" t="s">
-        <v>67</v>
+      <c r="E38" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F38" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G38" t="s">
-        <v>226</v>
+        <v>456</v>
       </c>
       <c r="H38" t="s">
-        <v>226</v>
+        <v>455</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>310</v>
+        <v>39</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>297</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
-      <c r="E39" s="24" t="s">
-        <v>67</v>
+      <c r="E39" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F39" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G39" t="s">
-        <v>226</v>
+        <v>458</v>
       </c>
       <c r="H39" t="s">
-        <v>226</v>
+        <v>457</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>311</v>
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>301</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="24" t="s">
-        <v>67</v>
+      <c r="E40" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F40" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G40" t="s">
-        <v>226</v>
+        <v>460</v>
       </c>
       <c r="H40" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>317</v>
+        <v>459</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="33">
+        <v>2</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>332</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41" t="s">
+        <v>61</v>
+      </c>
+      <c r="D41" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" t="s">
-        <v>225</v>
-      </c>
-      <c r="G41" t="s">
-        <v>226</v>
-      </c>
-      <c r="H41" t="s">
-        <v>406</v>
+      <c r="E41" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -2920,205 +3136,260 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="F42" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G42" t="s">
-        <v>226</v>
+        <v>461</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>367</v>
+      <c r="B43" t="s">
+        <v>344</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>365</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>366</v>
+        <v>342</v>
+      </c>
+      <c r="E43" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="F43" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G43" t="s">
-        <v>226</v>
+        <v>463</v>
       </c>
       <c r="H43" t="s">
-        <v>381</v>
+        <v>462</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>371</v>
+      <c r="B44" s="46" t="s">
+        <v>348</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>365</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>366</v>
+        <v>342</v>
+      </c>
+      <c r="E44" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="F44" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="G44" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="H44" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>370</v>
+      <c r="B45" t="s">
+        <v>347</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D45" t="s">
-        <v>365</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>366</v>
+        <v>342</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="F45" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G45" t="s">
-        <v>226</v>
+        <v>467</v>
+      </c>
+      <c r="H45" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>386</v>
+      <c r="B46" t="s">
+        <v>362</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" t="s">
-        <v>365</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>366</v>
+        <v>342</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="F46" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G46" t="s">
-        <v>226</v>
+        <v>469</v>
       </c>
       <c r="H46" t="s">
-        <v>390</v>
+        <v>468</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>399</v>
+      <c r="B47" t="s">
+        <v>372</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>365</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>366</v>
+        <v>342</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="F47" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G47" t="s">
-        <v>226</v>
+        <v>471</v>
       </c>
       <c r="H47" t="s">
-        <v>393</v>
+        <v>470</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>398</v>
+      <c r="B48" t="s">
+        <v>371</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>365</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>366</v>
+        <v>342</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="F48" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G48" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>394</v>
+      <c r="B49" t="s">
+        <v>368</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D49" t="s">
-        <v>365</v>
-      </c>
-      <c r="E49" s="24" t="s">
-        <v>366</v>
+        <v>342</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="F49" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="G49" t="s">
-        <v>226</v>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>378</v>
+      </c>
+      <c r="C50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>342</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="F50" t="s">
+        <v>403</v>
+      </c>
+      <c r="G50" t="s">
+        <v>475</v>
+      </c>
+      <c r="H50" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>379</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>342</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="F51" t="s">
+        <v>392</v>
+      </c>
+      <c r="G51" t="s">
+        <v>220</v>
+      </c>
+      <c r="H51" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C46" xr:uid="{11DB8818-DC61-4E14-B7A9-746A3214B0C1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51" xr:uid="{69BD04DD-C7E1-439A-93DB-B5B55DD5924D}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" location="884115409" tooltip="https://crminternalstage.premierinc.com/presit/main.aspx#884115409" display="https://crminternalstage.premierinc.com/PRESIT/main.aspx - 884115409" xr:uid="{E8013668-29D5-4C19-A568-35D908452B7C}"/>
+    <hyperlink ref="I3" r:id="rId1" location="884115409" tooltip="https://crminternalstage.premierinc.com/presit/main.aspx#884115409" display="https://crminternalstage.premierinc.com/PRESIT/main.aspx - 884115409" xr:uid="{98F35F52-DD7C-44DC-B186-5457CE641A39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -3129,8 +3400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9856292-E718-4F44-A2EB-03A51CA4C0E1}">
   <dimension ref="A1:CT28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="W4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3142,7 +3413,7 @@
     <col min="5" max="5" width="11.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="12.88671875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="12.88671875" style="6" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="36.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="69.109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="11" width="36.5546875" style="6" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="16.5546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="13" max="13" width="20.6640625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
@@ -3230,31 +3501,31 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="L1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>5</v>
@@ -3272,16 +3543,16 @@
         <v>9</v>
       </c>
       <c r="S1" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="T1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>125</v>
       </c>
       <c r="W1" s="12" t="s">
         <v>10</v>
@@ -3335,181 +3606,181 @@
         <v>32</v>
       </c>
       <c r="AN1" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AS1" s="5" t="s">
-        <v>98</v>
-      </c>
       <c r="AT1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU1" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AU1" s="5" t="s">
+      <c r="AV1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ1" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AV1" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AX1" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="AY1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AZ1" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="BA1" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB1" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="BC1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="BD1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="BD1" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="BE1" s="29" t="s">
+      <c r="BE1" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="BF1" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>257</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>262</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="BR1" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="BS1" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="BT1" t="s">
         <v>233</v>
       </c>
-      <c r="BF1" s="29" t="s">
+      <c r="BU1" t="s">
+        <v>270</v>
+      </c>
+      <c r="BV1" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="BW1" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="BG1" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="BH1" s="6" t="s">
+      <c r="BX1" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="BY1" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="BZ1" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="CA1" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="CB1" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="CC1" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="CD1" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="CE1" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="CF1" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="CG1" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="CH1" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="CI1" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="CJ1" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="CK1" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="CL1" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="BI1" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>259</v>
-      </c>
-      <c r="BK1" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="BL1" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="BM1" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="BN1" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>263</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>269</v>
-      </c>
-      <c r="BQ1" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="BR1" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="BS1" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>239</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>278</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="BW1" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="BX1" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="BY1" s="6" t="s">
+      <c r="CM1" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="CN1" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="BZ1" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="CA1" s="6" t="s">
+      <c r="CO1" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="CP1" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="CB1" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="CC1" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="CD1" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="CE1" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="CF1" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="CG1" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="CH1" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="CI1" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="CJ1" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="CK1" s="6" t="s">
+      <c r="CQ1" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="CL1" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="CM1" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="CN1" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="CO1" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="CP1" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="CQ1" s="6" t="s">
+      <c r="CR1" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="CR1" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="CS1" s="6" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="CT1" s="6" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3517,7 +3788,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>31</v>
@@ -3526,20 +3797,20 @@
         <v>2</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M2" s="10"/>
       <c r="N2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="10">
-        <v>44259</v>
-      </c>
-      <c r="P2" s="34" t="s">
-        <v>345</v>
+      <c r="O2" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="P2" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>28</v>
@@ -3551,7 +3822,7 @@
         <v>26</v>
       </c>
       <c r="Y2" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z2" s="9" t="s">
         <v>23</v>
@@ -3563,19 +3834,19 @@
         <v>27</v>
       </c>
       <c r="AC2" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AE2" s="10">
-        <v>44259</v>
+      <c r="AE2" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="AG2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH2" s="10">
-        <v>44259</v>
+      <c r="AH2" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="AJ2" s="9" t="s">
         <v>25</v>
@@ -3586,35 +3857,35 @@
       <c r="AL2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AM2" s="10">
-        <v>44259</v>
+      <c r="AM2" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW2" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY2" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ2" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CP2" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ2" s="10">
-        <v>44259</v>
+        <v>373</v>
+      </c>
+      <c r="CQ2" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT2" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:98" x14ac:dyDescent="0.3">
@@ -3622,26 +3893,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="25"/>
       <c r="I3" s="6" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="N3" t="s">
         <v>6</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z3" s="6" t="s">
         <v>23</v>
@@ -3653,7 +3924,7 @@
         <v>22020</v>
       </c>
       <c r="BE3" s="9" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="BF3" s="9"/>
       <c r="BG3" s="9"/>
@@ -3672,29 +3943,29 @@
       <c r="BT3" s="9"/>
       <c r="BU3" s="9"/>
       <c r="BV3" s="9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="BW3" s="9" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="BX3" s="9" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="BY3" s="9"/>
-      <c r="BZ3" s="23" t="s">
-        <v>348</v>
+      <c r="BZ3" s="22" t="s">
+        <v>326</v>
       </c>
       <c r="CA3" s="9"/>
       <c r="CB3" s="9"/>
       <c r="CC3" s="9"/>
       <c r="CP3" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ3" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ3" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT3" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3702,7 +3973,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>31</v>
@@ -3711,20 +3982,20 @@
         <v>2</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P4" s="34" t="s">
-        <v>345</v>
+        <v>385</v>
+      </c>
+      <c r="P4" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="W4" s="9" t="s">
         <v>11</v>
@@ -3733,7 +4004,7 @@
         <v>26</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z4" s="9" t="s">
         <v>23</v>
@@ -3745,25 +4016,25 @@
         <v>27</v>
       </c>
       <c r="AC4" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD4" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE4" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG4" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH4" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ4" s="9" t="s">
         <v>25</v>
@@ -3775,40 +4046,40 @@
         <v>41</v>
       </c>
       <c r="AM4" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AV4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BA4" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BD4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CP4" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ4" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ4" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT4" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3816,7 +4087,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>31</v>
@@ -3825,20 +4096,20 @@
         <v>2</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="M5" s="10"/>
       <c r="N5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P5" s="34" t="s">
-        <v>345</v>
+        <v>385</v>
+      </c>
+      <c r="P5" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="W5" s="9" t="s">
         <v>11</v>
@@ -3847,7 +4118,7 @@
         <v>26</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z5" s="9" t="s">
         <v>23</v>
@@ -3859,25 +4130,25 @@
         <v>27</v>
       </c>
       <c r="AC5" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD5" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE5" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG5" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ5" s="9" t="s">
         <v>25</v>
@@ -3889,40 +4160,40 @@
         <v>41</v>
       </c>
       <c r="AM5" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AV5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BA5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BD5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CP5" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ5" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ5" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT5" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3930,7 +4201,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>31</v>
@@ -3939,22 +4210,22 @@
         <v>2</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="M6" s="10"/>
       <c r="N6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P6" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q6" s="34"/>
+        <v>385</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q6" s="32"/>
       <c r="W6" s="9" t="s">
         <v>11</v>
       </c>
@@ -3962,7 +4233,7 @@
         <v>26</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z6" s="9" t="s">
         <v>23</v>
@@ -3971,19 +4242,19 @@
         <v>27</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD6" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE6" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AG6" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH6" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AJ6" s="9" t="s">
         <v>25</v>
@@ -3995,34 +4266,34 @@
         <v>41</v>
       </c>
       <c r="AM6" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BA6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CP6" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ6" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ6" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT6" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4030,7 +4301,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>31</v>
@@ -4039,20 +4310,20 @@
         <v>2</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="M7" s="10"/>
       <c r="N7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P7" s="34" t="s">
-        <v>345</v>
+        <v>385</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="W7" s="9" t="s">
         <v>11</v>
@@ -4061,7 +4332,7 @@
         <v>26</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z7" s="9" t="s">
         <v>23</v>
@@ -4073,19 +4344,19 @@
         <v>27</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD7" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE7" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AG7" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH7" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AJ7" s="9" t="s">
         <v>25</v>
@@ -4097,34 +4368,34 @@
         <v>41</v>
       </c>
       <c r="AM7" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AV7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BA7" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CP7" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ7" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ7" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT7" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4132,7 +4403,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>31</v>
@@ -4141,20 +4412,20 @@
         <v>2</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="M8" s="10"/>
       <c r="N8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="34" t="s">
-        <v>345</v>
+        <v>385</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>387</v>
       </c>
       <c r="W8" s="9" t="s">
         <v>11</v>
@@ -4163,7 +4434,7 @@
         <v>26</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z8" s="9" t="s">
         <v>23</v>
@@ -4172,19 +4443,19 @@
         <v>27</v>
       </c>
       <c r="AC8" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD8" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE8" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AG8" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH8" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AJ8" s="9" t="s">
         <v>25</v>
@@ -4196,34 +4467,34 @@
         <v>41</v>
       </c>
       <c r="AM8" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BA8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CP8" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ8" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ8" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT8" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4231,29 +4502,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="M9" s="10"/>
       <c r="N9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P9" s="34" t="s">
-        <v>345</v>
+        <v>385</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="W9" s="9" t="s">
         <v>11</v>
@@ -4262,7 +4533,7 @@
         <v>26</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z9" s="9" t="s">
         <v>23</v>
@@ -4275,13 +4546,13 @@
       </c>
       <c r="AC9" s="13"/>
       <c r="AD9" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG9" s="14" t="s">
         <v>17</v>
       </c>
       <c r="AH9" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AJ9" s="9" t="s">
         <v>25</v>
@@ -4293,46 +4564,46 @@
         <v>41</v>
       </c>
       <c r="AM9" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP9" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
+      </c>
+      <c r="AP9" s="10">
+        <v>44259</v>
       </c>
       <c r="AQ9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR9" s="16" t="s">
-        <v>77</v>
+        <v>92</v>
+      </c>
+      <c r="AR9" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="AS9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AV9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AX9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BA9" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BB9" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CP9" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ9" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ9" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT9" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4340,29 +4611,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="M10" s="10"/>
       <c r="N10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="34" t="s">
-        <v>345</v>
+        <v>385</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="W10" s="9" t="s">
         <v>11</v>
@@ -4371,7 +4642,7 @@
         <v>26</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z10" s="9" t="s">
         <v>23</v>
@@ -4384,13 +4655,13 @@
       </c>
       <c r="AC10" s="13"/>
       <c r="AD10" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG10" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH10" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AJ10" s="9" t="s">
         <v>25</v>
@@ -4402,52 +4673,52 @@
         <v>41</v>
       </c>
       <c r="AM10" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AN10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP10" s="9" t="s">
-        <v>77</v>
+        <v>92</v>
+      </c>
+      <c r="AP10" s="10">
+        <v>44259</v>
       </c>
       <c r="AQ10" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR10" s="16" t="s">
-        <v>77</v>
+        <v>92</v>
+      </c>
+      <c r="AR10" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="AS10" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AT10" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AV10" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AX10" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BA10" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BB10" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="CP10" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ10" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ10" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT10" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4455,7 +4726,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>31</v>
@@ -4464,20 +4735,20 @@
         <v>2</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="M11" s="10"/>
       <c r="N11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>345</v>
+        <v>385</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="Q11" s="9" t="s">
         <v>37</v>
@@ -4492,7 +4763,7 @@
         <v>26</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z11" s="9" t="s">
         <v>23</v>
@@ -4504,19 +4775,19 @@
         <v>27</v>
       </c>
       <c r="AC11" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD11" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE11" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AG11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH11" s="15">
-        <v>44188</v>
+      <c r="AH11" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="AJ11" s="9" t="s">
         <v>25</v>
@@ -4528,41 +4799,41 @@
         <v>41</v>
       </c>
       <c r="AM11" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AU11" s="10"/>
       <c r="AV11" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW11" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX11" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY11" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ11" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BA11" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC11" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BD11" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CP11" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ11" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ11" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT11" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4570,7 +4841,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>31</v>
@@ -4579,20 +4850,20 @@
         <v>2</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="M12" s="10"/>
       <c r="N12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P12" s="34" t="s">
-        <v>345</v>
+        <v>385</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="Q12" s="9" t="s">
         <v>37</v>
@@ -4604,7 +4875,7 @@
         <v>26</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z12" s="9" t="s">
         <v>23</v>
@@ -4616,25 +4887,25 @@
         <v>27</v>
       </c>
       <c r="AC12" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD12" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE12" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG12" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH12" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ12" s="9" t="s">
         <v>25</v>
@@ -4646,40 +4917,40 @@
         <v>41</v>
       </c>
       <c r="AM12" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AV12" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX12" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BA12" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BD12" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CP12" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ12" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ12" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT12" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4687,7 +4958,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>31</v>
@@ -4696,20 +4967,20 @@
         <v>2</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="M13" s="10"/>
       <c r="N13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P13" s="34" t="s">
-        <v>345</v>
+        <v>385</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="Q13" s="9" t="s">
         <v>37</v>
@@ -4721,7 +4992,7 @@
         <v>26</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z13" s="9" t="s">
         <v>23</v>
@@ -4733,19 +5004,19 @@
         <v>27</v>
       </c>
       <c r="AC13" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD13" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE13" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AG13" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH13" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AJ13" s="9" t="s">
         <v>25</v>
@@ -4757,34 +5028,34 @@
         <v>41</v>
       </c>
       <c r="AM13" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AV13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BA13" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CP13" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ13" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ13" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT13" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4792,7 +5063,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>31</v>
@@ -4801,20 +5072,20 @@
         <v>2</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="M14" s="10"/>
       <c r="N14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P14" s="34" t="s">
-        <v>345</v>
+        <v>385</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="Q14" s="9" t="s">
         <v>37</v>
@@ -4829,7 +5100,7 @@
         <v>26</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z14" s="9" t="s">
         <v>23</v>
@@ -4841,19 +5112,19 @@
         <v>27</v>
       </c>
       <c r="AC14" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD14" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE14" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AG14" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH14" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AJ14" s="9" t="s">
         <v>25</v>
@@ -4865,34 +5136,34 @@
         <v>41</v>
       </c>
       <c r="AM14" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AV14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW14" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY14" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ14" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BA14" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CP14" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ14" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ14" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT14" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -4900,7 +5171,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>31</v>
@@ -4909,20 +5180,20 @@
         <v>2</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="M15" s="10"/>
       <c r="N15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P15" s="34" t="s">
-        <v>345</v>
+        <v>385</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="Q15" s="9" t="s">
         <v>37</v>
@@ -4937,7 +5208,7 @@
         <v>26</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z15" s="9" t="s">
         <v>23</v>
@@ -4949,19 +5220,19 @@
         <v>27</v>
       </c>
       <c r="AC15" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD15" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE15" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AG15" s="14" t="s">
         <v>34</v>
       </c>
       <c r="AH15" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AJ15" s="9" t="s">
         <v>25</v>
@@ -4973,34 +5244,34 @@
         <v>41</v>
       </c>
       <c r="AM15" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AV15" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW15" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX15" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY15" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ15" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BA15" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CP15" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ15" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ15" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT15" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5008,7 +5279,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>31</v>
@@ -5017,23 +5288,23 @@
         <v>2</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="M16" s="10"/>
       <c r="N16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>345</v>
+        <v>385</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>28</v>
@@ -5045,7 +5316,7 @@
         <v>26</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z16" s="9" t="s">
         <v>23</v>
@@ -5057,19 +5328,19 @@
         <v>27</v>
       </c>
       <c r="AC16" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD16" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE16" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AG16" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH16" s="15">
-        <v>44188</v>
+      <c r="AH16" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="AJ16" s="9" t="s">
         <v>25</v>
@@ -5081,46 +5352,46 @@
         <v>41</v>
       </c>
       <c r="AM16" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AN16" s="11"/>
       <c r="AO16" s="11"/>
-      <c r="AP16" s="16"/>
+      <c r="AP16" s="15"/>
       <c r="AQ16" s="11"/>
-      <c r="AR16" s="16"/>
+      <c r="AR16" s="15"/>
       <c r="AS16" s="11"/>
       <c r="AV16" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW16" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX16" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY16" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ16" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BA16" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC16" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BD16" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CP16" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ16" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ16" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT16" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:98" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -5128,7 +5399,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>31</v>
@@ -5137,23 +5408,23 @@
         <v>2</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>345</v>
+        <v>385</v>
+      </c>
+      <c r="P17" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="Q17" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>28</v>
@@ -5165,7 +5436,7 @@
         <v>26</v>
       </c>
       <c r="Y17" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z17" s="9" t="s">
         <v>23</v>
@@ -5177,19 +5448,19 @@
         <v>27</v>
       </c>
       <c r="AC17" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE17" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AG17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH17" s="15">
-        <v>44188</v>
+      <c r="AH17" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="AJ17" s="9" t="s">
         <v>25</v>
@@ -5201,48 +5472,48 @@
         <v>41</v>
       </c>
       <c r="AM17" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AN17" s="11"/>
       <c r="AO17" s="11"/>
-      <c r="AP17" s="16"/>
+      <c r="AP17" s="15"/>
       <c r="AQ17" s="11"/>
-      <c r="AR17" s="16"/>
+      <c r="AR17" s="15"/>
       <c r="AS17" s="11"/>
       <c r="AT17" s="11"/>
       <c r="AU17" s="10"/>
       <c r="AV17" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW17" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX17" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY17" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ17" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BA17" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC17" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BD17" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CP17" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ17" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ17" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT17" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:98" x14ac:dyDescent="0.3">
@@ -5250,7 +5521,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>31</v>
@@ -5263,38 +5534,38 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>345</v>
+        <v>385</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="Q18" s="9"/>
       <c r="R18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S18" s="19" t="s">
+      <c r="S18" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="T18" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="U18" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="V18" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="T18" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="U18" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="V18" s="20" t="s">
-        <v>130</v>
       </c>
       <c r="W18" s="9" t="s">
         <v>11</v>
@@ -5303,7 +5574,7 @@
         <v>26</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z18" s="9" t="s">
         <v>23</v>
@@ -5315,20 +5586,20 @@
         <v>27</v>
       </c>
       <c r="AC18" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD18" s="14" t="s">
         <v>33</v>
       </c>
       <c r="AE18" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AF18" s="9"/>
       <c r="AG18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH18" s="15">
-        <v>44188</v>
+      <c r="AH18" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9" t="s">
@@ -5341,23 +5612,23 @@
         <v>41</v>
       </c>
       <c r="AM18" s="10" t="s">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="AN18" s="11"/>
       <c r="AO18" s="11"/>
-      <c r="AP18" s="16"/>
+      <c r="AP18" s="15"/>
       <c r="AQ18" s="11"/>
-      <c r="AR18" s="16"/>
+      <c r="AR18" s="15"/>
       <c r="BC18" s="9"/>
       <c r="BD18" s="9"/>
       <c r="CP18" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ18" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ18" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT18" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:98" x14ac:dyDescent="0.3">
@@ -5365,7 +5636,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>31</v>
@@ -5388,13 +5659,13 @@
       <c r="BC19" s="9"/>
       <c r="BD19" s="9"/>
       <c r="CP19" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ19" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ19" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT19" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:98" x14ac:dyDescent="0.3">
@@ -5402,7 +5673,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
@@ -5410,40 +5681,40 @@
       <c r="D20" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="27" t="s">
-        <v>351</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="G20" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="H20" s="27" t="s">
-        <v>360</v>
+      <c r="E20" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>337</v>
       </c>
       <c r="I20" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="34"/>
+      <c r="P20" s="32"/>
       <c r="CP20" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ20" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ20" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT20" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:98" x14ac:dyDescent="0.3">
@@ -5451,33 +5722,33 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>386</v>
       </c>
       <c r="C21" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="I21" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
-      <c r="L21" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="M21" s="20" t="s">
-        <v>268</v>
+      <c r="L21" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>261</v>
       </c>
       <c r="N21" t="s">
         <v>6</v>
       </c>
-      <c r="O21" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="P21" s="34" t="s">
-        <v>345</v>
+      <c r="O21" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>323</v>
       </c>
       <c r="Q21" s="9" t="s">
         <v>37</v>
@@ -5485,8 +5756,8 @@
       <c r="R21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="T21" s="20" t="s">
-        <v>133</v>
+      <c r="T21" s="19" t="s">
+        <v>131</v>
       </c>
       <c r="W21" s="9" t="s">
         <v>11</v>
@@ -5495,7 +5766,7 @@
         <v>26</v>
       </c>
       <c r="Y21" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z21" s="9" t="s">
         <v>23</v>
@@ -5507,193 +5778,193 @@
         <v>27</v>
       </c>
       <c r="AC21" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD21" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE21" s="31" t="s">
-        <v>289</v>
+        <v>99</v>
+      </c>
+      <c r="AE21" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="AF21" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AH21" s="31" t="s">
-        <v>289</v>
+      <c r="AH21" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="AI21" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AJ21" s="9" t="s">
         <v>25</v>
       </c>
       <c r="AO21" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP21" s="31" t="s">
-        <v>289</v>
+        <v>92</v>
+      </c>
+      <c r="AP21" s="10">
+        <v>44259</v>
       </c>
       <c r="AQ21" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR21" s="31" t="s">
-        <v>289</v>
+        <v>92</v>
+      </c>
+      <c r="AR21" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="AS21" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AT21" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AU21" s="31" t="s">
-        <v>289</v>
+        <v>100</v>
+      </c>
+      <c r="AU21" s="29" t="s">
+        <v>281</v>
       </c>
       <c r="AV21" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AW21" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AX21" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AY21" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ21" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BA21" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BB21" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BC21" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BD21" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BE21" t="s">
-        <v>257</v>
-      </c>
-      <c r="BF21" s="20" t="s">
-        <v>267</v>
+        <v>251</v>
+      </c>
+      <c r="BF21" s="19" t="s">
+        <v>260</v>
       </c>
       <c r="BG21" t="s">
         <v>6</v>
       </c>
       <c r="BH21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BI21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BJ21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BK21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BL21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BM21" t="s">
-        <v>261</v>
-      </c>
-      <c r="BN21" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="BO21" s="20" t="s">
-        <v>264</v>
+        <v>255</v>
+      </c>
+      <c r="BN21" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="BO21" s="19" t="s">
+        <v>258</v>
       </c>
       <c r="BP21" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="BQ21" t="s">
-        <v>119</v>
-      </c>
-      <c r="BR21" s="20" t="s">
-        <v>274</v>
+        <v>118</v>
+      </c>
+      <c r="BR21" s="19" t="s">
+        <v>267</v>
       </c>
       <c r="BS21" t="s">
+        <v>60</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>269</v>
+      </c>
+      <c r="BU21" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>271</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>273</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>333</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>275</v>
+      </c>
+      <c r="BZ21" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="CA21" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="CB21" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="CC21" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="CD21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="BT21" t="s">
-        <v>277</v>
-      </c>
-      <c r="BU21" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>279</v>
-      </c>
-      <c r="BW21" t="s">
-        <v>281</v>
-      </c>
-      <c r="BX21" t="s">
-        <v>355</v>
-      </c>
-      <c r="BY21" t="s">
-        <v>283</v>
-      </c>
-      <c r="BZ21" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="CA21" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="CB21" s="23" t="s">
+      <c r="CE21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CF21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CG21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CH21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CI21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CJ21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="CK21" t="s">
         <v>286</v>
       </c>
-      <c r="CC21" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="CD21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CE21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CF21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CG21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CH21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CI21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CJ21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="CK21" t="s">
-        <v>296</v>
-      </c>
       <c r="CL21" t="s">
-        <v>295</v>
+        <v>389</v>
       </c>
       <c r="CM21" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CN21" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CP21" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ21" s="31" t="s">
-        <v>289</v>
+        <v>373</v>
+      </c>
+      <c r="CQ21" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="CT21" s="9" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:98" x14ac:dyDescent="0.3">
@@ -5701,31 +5972,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="33" t="s">
-        <v>297</v>
+      <c r="E22" s="31" t="s">
+        <v>287</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>306</v>
+        <v>396</v>
       </c>
       <c r="W22" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="CO22" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="CP22" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="CO22" s="32" t="s">
-        <v>299</v>
-      </c>
-      <c r="CP22" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="CQ22" s="31" t="s">
-        <v>289</v>
+      <c r="CQ22" s="10" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:98" x14ac:dyDescent="0.3">
@@ -5733,31 +6004,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="33" t="s">
-        <v>297</v>
+      <c r="E23" s="31" t="s">
+        <v>287</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>307</v>
+        <v>397</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="CO23" s="32" t="s">
-        <v>299</v>
+        <v>283</v>
+      </c>
+      <c r="CO23" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="CP23" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="CQ23" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="CQ23" s="10" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:98" x14ac:dyDescent="0.3">
@@ -5765,31 +6036,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="33" t="s">
-        <v>297</v>
+      <c r="E24" s="31" t="s">
+        <v>287</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>308</v>
+        <v>398</v>
       </c>
       <c r="W24" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="CO24" s="32" t="s">
-        <v>299</v>
+        <v>283</v>
+      </c>
+      <c r="CO24" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="CP24" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="CQ24" s="31" t="s">
-        <v>289</v>
+        <v>285</v>
+      </c>
+      <c r="CQ24" s="10" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="25" spans="1:98" x14ac:dyDescent="0.3">
@@ -5797,31 +6068,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="33" t="s">
-        <v>297</v>
+      <c r="E25" s="31" t="s">
+        <v>287</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>309</v>
+        <v>399</v>
       </c>
       <c r="W25" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="CO25" s="32" t="s">
-        <v>299</v>
+        <v>283</v>
+      </c>
+      <c r="CO25" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="CP25" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="CQ25" s="31" t="s">
-        <v>289</v>
+        <v>292</v>
+      </c>
+      <c r="CQ25" s="10" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:98" x14ac:dyDescent="0.3">
@@ -5829,34 +6100,34 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="D26" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="33" t="s">
-        <v>297</v>
+      <c r="E26" s="31" t="s">
+        <v>287</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>312</v>
+        <v>400</v>
       </c>
       <c r="W26" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="CO26" s="32" t="s">
-        <v>299</v>
+        <v>283</v>
+      </c>
+      <c r="CO26" s="30" t="s">
+        <v>289</v>
       </c>
       <c r="CP26" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="CQ26" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="CR26" s="34" t="s">
-        <v>316</v>
+        <v>292</v>
+      </c>
+      <c r="CQ26" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CR26" s="32" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:98" x14ac:dyDescent="0.3">
@@ -5864,34 +6135,34 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="33" t="s">
-        <v>297</v>
+      <c r="E27" s="31" t="s">
+        <v>287</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>313</v>
+        <v>401</v>
       </c>
       <c r="W27" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="CO27" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="CO27" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="CP27" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="CQ27" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="CR27" s="32" t="s">
         <v>299</v>
-      </c>
-      <c r="CP27" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="CQ27" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="CR27" s="34" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:98" x14ac:dyDescent="0.3">
@@ -5899,25 +6170,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="W28" s="6" t="s">
-        <v>320</v>
+        <v>303</v>
       </c>
       <c r="X28" s="9" t="s">
         <v>26</v>
       </c>
       <c r="Y28" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z28" s="9" t="s">
         <v>23</v>
@@ -5928,23 +6199,23 @@
       <c r="AB28" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AC28" s="33" t="s">
-        <v>319</v>
-      </c>
-      <c r="AE28" s="31" t="s">
-        <v>289</v>
+      <c r="AC28" s="47" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE28" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="AG28" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="AH28" s="31" t="s">
-        <v>289</v>
+      <c r="AH28" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="AJ28" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="CS28" s="23" t="s">
-        <v>210</v>
+      <c r="CS28" s="22" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5961,8 +6232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D073B921-24DF-4F78-BD1E-1984D65F897D}">
   <dimension ref="A1:AU15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6028,133 +6299,133 @@
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="V1" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="W1" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="X1" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="Y1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="X1" s="21" t="s">
+      <c r="Z1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="Y1" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z1" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA1" s="21" t="s">
-        <v>339</v>
+      <c r="AA1" s="20" t="s">
+        <v>322</v>
       </c>
       <c r="AB1" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="AC1" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="AD1" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AE1" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="AF1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AG1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AH1" t="s">
         <v>29</v>
       </c>
       <c r="AI1" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="AJ1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AK1" t="s">
         <v>30</v>
       </c>
       <c r="AL1" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="AM1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AN1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="AO1" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
       <c r="AP1" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="AQ1" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="AR1" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="AS1" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="AT1" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="AU1" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:47" x14ac:dyDescent="0.3">
@@ -6162,34 +6433,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" t="s">
         <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>53</v>
       </c>
       <c r="G2" t="s">
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -6213,40 +6484,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
         <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>27</v>
@@ -6259,7 +6530,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.3">
@@ -6267,46 +6538,46 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
         <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
       </c>
       <c r="G4" t="s">
         <v>25</v>
       </c>
       <c r="I4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" t="s">
         <v>159</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" t="s">
-        <v>161</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -6314,7 +6585,7 @@
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Y4" s="1"/>
     </row>
@@ -6323,40 +6594,40 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
         <v>52</v>
-      </c>
-      <c r="F5" t="s">
-        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>28</v>
       </c>
       <c r="I5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>27</v>
@@ -6374,44 +6645,44 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
         <v>52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>27</v>
@@ -6424,7 +6695,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Z6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.3">
@@ -6432,44 +6703,44 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
         <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>27</v>
@@ -6482,7 +6753,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Z7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.3">
@@ -6490,42 +6761,42 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="N8" s="10"/>
       <c r="Q8" s="1"/>
-      <c r="S8" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
+      <c r="S8" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
       <c r="W8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.3">
@@ -6533,58 +6804,58 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
         <v>52</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>185</v>
-      </c>
-      <c r="J9" s="22">
+        <v>183</v>
+      </c>
+      <c r="J9" s="21">
         <v>44201</v>
       </c>
       <c r="K9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O9" t="s">
         <v>37</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S9" s="23"/>
+      <c r="S9" s="22"/>
       <c r="T9" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="Z9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.3">
@@ -6592,45 +6863,45 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
       </c>
       <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
         <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="M10" s="23"/>
+        <v>187</v>
+      </c>
+      <c r="M10" s="22"/>
       <c r="N10" s="10"/>
       <c r="Q10" s="1"/>
-      <c r="S10" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="T10" s="23" t="s">
+      <c r="S10" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
+      <c r="T10" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
       <c r="W10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.3">
@@ -6638,44 +6909,44 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
         <v>52</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>194</v>
-      </c>
-      <c r="J11" s="22"/>
-      <c r="L11" s="22"/>
+        <v>190</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="22"/>
+      <c r="N11" s="21"/>
       <c r="O11" t="s">
         <v>37</v>
       </c>
       <c r="Q11" s="1"/>
-      <c r="S11" s="23" t="s">
-        <v>195</v>
+      <c r="S11" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:47" x14ac:dyDescent="0.3">
@@ -6683,47 +6954,47 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
         <v>52</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I12" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="T12" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23" t="s">
+      <c r="S12" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="T12" s="22" t="s">
         <v>199</v>
       </c>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22" t="s">
+        <v>195</v>
+      </c>
       <c r="W12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.3">
@@ -6731,49 +7002,49 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
         <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S13" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="T13" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="U13" s="23" t="s">
+      <c r="S13" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="T13" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="U13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="V13" s="23" t="s">
-        <v>210</v>
+      <c r="V13" s="22" t="s">
+        <v>206</v>
       </c>
       <c r="W13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:47" x14ac:dyDescent="0.3">
@@ -6781,175 +7052,175 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
         <v>2</v>
       </c>
       <c r="E14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" t="s">
         <v>52</v>
-      </c>
-      <c r="F14" t="s">
-        <v>53</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I14" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="T14" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23" t="s">
-        <v>199</v>
+      <c r="S14" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="T14" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="W14" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="15" spans="1:47" s="35" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="35">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" s="33" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
         <v>14</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="35" t="s">
+      <c r="B15" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>322</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="K15" s="35" t="s">
-        <v>161</v>
+      <c r="H15" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="I15" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="K15" s="33" t="s">
+        <v>159</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O15" t="s">
         <v>37</v>
       </c>
       <c r="P15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="U15" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="U15" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="V15" s="23" t="s">
-        <v>199</v>
+      <c r="V15" s="22" t="s">
+        <v>195</v>
       </c>
       <c r="Z15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AA15" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB15" s="35" t="s">
-        <v>332</v>
-      </c>
-      <c r="AC15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD15" s="20" t="s">
-        <v>262</v>
+        <v>172</v>
+      </c>
+      <c r="AB15" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC15" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD15" s="19" t="s">
+        <v>256</v>
       </c>
       <c r="AE15" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF15" s="35" t="s">
-        <v>333</v>
+        <v>263</v>
+      </c>
+      <c r="AF15" s="33" t="s">
+        <v>316</v>
       </c>
       <c r="AG15" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH15" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK15" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL15" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="AH15" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>281</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>282</v>
-      </c>
-      <c r="AK15" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL15" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="AM15" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="AN15" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="AO15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR15" s="35" t="s">
-        <v>334</v>
-      </c>
-      <c r="AS15" s="34" t="s">
-        <v>338</v>
-      </c>
-      <c r="AT15" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU15" s="35" t="s">
-        <v>62</v>
+      <c r="AM15" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="AN15" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="AO15" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP15" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ15" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR15" s="33" t="s">
+        <v>317</v>
+      </c>
+      <c r="AS15" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="AT15" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU15" s="33" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -6963,10 +7234,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51C67A-098B-49A1-9024-B5BC951889FA}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6978,18 +7249,20 @@
     <col min="5" max="5" width="9.33203125" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="65.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="23" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="65.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="65.44140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
@@ -7002,274 +7275,361 @@
       <c r="D1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>396</v>
+      <c r="E1" s="37" t="s">
+        <v>370</v>
       </c>
       <c r="F1" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="G1" t="s">
-        <v>369</v>
-      </c>
-      <c r="H1" s="42" t="s">
-        <v>373</v>
-      </c>
-      <c r="I1" t="s">
-        <v>375</v>
+        <v>346</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>380</v>
       </c>
       <c r="J1" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="K1" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="L1" t="s">
+        <v>356</v>
+      </c>
+      <c r="M1" t="s">
+        <v>353</v>
+      </c>
+      <c r="N1" t="s">
+        <v>358</v>
+      </c>
+      <c r="O1" t="s">
+        <v>359</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>364</v>
+      </c>
+      <c r="R1" t="s">
+        <v>383</v>
+      </c>
+      <c r="S1" t="s">
         <v>376</v>
       </c>
-      <c r="M1" t="s">
-        <v>382</v>
-      </c>
-      <c r="N1" t="s">
-        <v>383</v>
-      </c>
-      <c r="O1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C2" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="38"/>
       <c r="F2" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="G2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="I2" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="I2" s="22"/>
+      <c r="J2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="K2" s="39" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K2" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="L2" s="35" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C3" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="43"/>
+      <c r="E3" s="38"/>
       <c r="F3" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="G3" t="s">
-        <v>384</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="I3" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="I3" s="22"/>
+      <c r="J3" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="K3" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="L3" s="22">
+      <c r="K3" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="M3" s="21">
         <v>44562</v>
       </c>
-      <c r="M3" t="s">
-        <v>52</v>
-      </c>
       <c r="N3" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q3" s="22">
-        <v>45292</v>
-      </c>
-      <c r="S3" s="34"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>299</v>
+      </c>
+      <c r="S3" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="U3" s="32"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="38"/>
       <c r="F4" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="G4" t="s">
-        <v>385</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="I4" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>380</v>
-      </c>
-      <c r="L4" s="22">
+      <c r="K4" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="L4" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="M4" s="21">
         <v>44562</v>
       </c>
-      <c r="M4" t="s">
-        <v>52</v>
-      </c>
       <c r="N4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>386</v>
-      </c>
-      <c r="C5" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="38"/>
       <c r="F5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G5" t="s">
+        <v>366</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="P5" t="s">
         <v>365</v>
       </c>
-      <c r="G5" t="s">
-        <v>391</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="43"/>
-      <c r="O5" t="s">
-        <v>389</v>
-      </c>
-      <c r="P5" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>399</v>
-      </c>
-      <c r="C6" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="38"/>
       <c r="F6" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="G6" t="s">
-        <v>392</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="I6" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="K6" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="L6" s="35" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
-      </c>
-      <c r="C7" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="41" t="s">
-        <v>395</v>
-      </c>
-      <c r="J7" s="43"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E7" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>368</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>342</v>
+      </c>
+      <c r="G9" t="s">
         <v>394</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="H9" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="L9" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="N9" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D10" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="F10" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" t="s">
         <v>395</v>
       </c>
-      <c r="K8" s="39"/>
-      <c r="P8" s="34"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="H10" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="J10" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="38" t="s">
+        <v>355</v>
+      </c>
+      <c r="L10" s="35" t="s">
+        <v>357</v>
+      </c>
+      <c r="N10" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
